--- a/DoD_results.xlsx
+++ b/DoD_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="26">
   <si>
     <t>Group</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Audubon Society</t>
+  </si>
+  <si>
+    <t>Earthjustice</t>
+  </si>
+  <si>
+    <t>Greenpeace</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N411"/>
+  <dimension ref="A1:N493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,25 +510,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0003802281368821293</v>
+        <v>0.0001267427122940431</v>
       </c>
       <c r="E2">
         <v>0.0007604562737642585</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.0006337135614702154</v>
+      </c>
+      <c r="H2">
+        <v>0.0003802281368821293</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>0.0001267427122940431</v>
-      </c>
-      <c r="G2">
-        <v>0.0008871989860583017</v>
-      </c>
-      <c r="H2">
-        <v>0.0005069708491761723</v>
-      </c>
-      <c r="I2">
-        <v>0.0002534854245880862</v>
-      </c>
-      <c r="J2">
-        <v>0.0002534854245880862</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -548,22 +554,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001313542624458164</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0.0002627085248916327</v>
       </c>
       <c r="F3">
-        <v>0.0001313542624458164</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0.0001313542624458164</v>
       </c>
       <c r="H3">
-        <v>0.0005254170497832654</v>
+        <v>0.0002627085248916327</v>
       </c>
       <c r="I3">
-        <v>0.0001313542624458164</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -592,19 +598,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0007717041800643086</v>
+        <v>0.0005144694533762058</v>
       </c>
       <c r="E4">
         <v>0.0006430868167202572</v>
       </c>
       <c r="F4">
-        <v>0.0001286173633440514</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0.0006430868167202572</v>
       </c>
       <c r="H4">
-        <v>0.0002572347266881029</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0.0002572347266881029</v>
@@ -642,7 +648,7 @@
         <v>0.0001176055509820064</v>
       </c>
       <c r="F5">
-        <v>0.0001176055509820064</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -651,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001176055509820064</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -686,10 +692,10 @@
         <v>0.0004893325504012527</v>
       </c>
       <c r="F6">
-        <v>9.786651008025054E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002935995302407516</v>
+        <v>0.0001957330201605011</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -698,7 +704,7 @@
         <v>9.786651008025054E-05</v>
       </c>
       <c r="J6">
-        <v>0.0002935995302407516</v>
+        <v>0.0001957330201605011</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -730,7 +736,7 @@
         <v>0.0003132832080200501</v>
       </c>
       <c r="F7">
-        <v>0.0001044277360066834</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0.0001044277360066834</v>
@@ -739,7 +745,7 @@
         <v>0.0001044277360066834</v>
       </c>
       <c r="I7">
-        <v>0.0003132832080200501</v>
+        <v>0.0002088554720133667</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -786,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0002845489898510861</v>
+        <v>9.484966328369534E-05</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0004933885928557331</v>
+        <v>9.867771857114664E-05</v>
       </c>
       <c r="H10">
         <v>9.867771857114664E-05</v>
@@ -962,7 +968,7 @@
         <v>0.0001516760200212346</v>
       </c>
       <c r="J12">
-        <v>0.0003033520400424693</v>
+        <v>0.0001516760200212346</v>
       </c>
       <c r="K12">
         <v>0.0001516760200212346</v>
@@ -982,40 +988,40 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.007265469061876247</v>
+        <v>0.007266629401900503</v>
       </c>
       <c r="C13">
-        <v>0.0004790419161676647</v>
+        <v>0.0004791184221033299</v>
       </c>
       <c r="D13">
-        <v>7.984031936127745E-05</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0003992015968063872</v>
+        <v>0.0003992653517527749</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.001117764471057884</v>
+        <v>0.001038089914557215</v>
       </c>
       <c r="H13">
-        <v>7.984031936127745E-05</v>
+        <v>7.985307035055498E-05</v>
       </c>
       <c r="I13">
-        <v>0.0008782435129740519</v>
+        <v>0.0004791184221033299</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.984031936127745E-05</v>
+        <v>7.985307035055498E-05</v>
       </c>
       <c r="L13">
-        <v>7.984031936127745E-05</v>
+        <v>7.985307035055498E-05</v>
       </c>
       <c r="M13">
-        <v>7.984031936127745E-05</v>
+        <v>7.985307035055498E-05</v>
       </c>
       <c r="N13">
         <v>1991</v>
@@ -1038,19 +1044,19 @@
         <v>0.00147683219494185</v>
       </c>
       <c r="F14">
-        <v>0.0001230693495784875</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.001230693495784875</v>
+        <v>0.001169158820995631</v>
       </c>
       <c r="H14">
         <v>0.000246138699156975</v>
       </c>
       <c r="I14">
-        <v>0.0001230693495784875</v>
+        <v>6.153467478924374E-05</v>
       </c>
       <c r="J14">
-        <v>0.0001230693495784875</v>
+        <v>6.153467478924374E-05</v>
       </c>
       <c r="K14">
         <v>0.0001230693495784875</v>
@@ -1085,16 +1091,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.00106788710907704</v>
+        <v>0.0009153318077803204</v>
       </c>
       <c r="H15">
         <v>0.0002288329519450801</v>
       </c>
       <c r="I15">
-        <v>7.627765064836003E-05</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7.627765064836003E-05</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0.0002288329519450801</v>
@@ -1120,7 +1126,7 @@
         <v>0.0003693785206390249</v>
       </c>
       <c r="D16">
-        <v>0.0001846892603195124</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0.0007387570412780497</v>
@@ -1129,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.001477514082556099</v>
+        <v>0.001200480192076831</v>
       </c>
       <c r="H16">
-        <v>0.0004617231507987811</v>
+        <v>0.0003693785206390249</v>
       </c>
       <c r="I16">
-        <v>0.0003693785206390249</v>
+        <v>0.0002770338904792687</v>
       </c>
       <c r="J16">
-        <v>9.234463015975621E-05</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1158,40 +1164,40 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.01266726137377342</v>
+        <v>0.006235385814497272</v>
       </c>
       <c r="C17">
-        <v>0.0001784121320249777</v>
+        <v>8.660258075690655E-05</v>
       </c>
       <c r="D17">
-        <v>0.0003568242640499554</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.00392506690454951</v>
+        <v>0.00251147484195029</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.001248884924174844</v>
+        <v>0.001472243872867411</v>
       </c>
       <c r="H17">
-        <v>0.0007136485280999108</v>
+        <v>0.0002598077422707197</v>
       </c>
       <c r="I17">
-        <v>0.0005352363960749331</v>
+        <v>0.0001732051615138131</v>
       </c>
       <c r="J17">
-        <v>0.0003568242640499554</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.0001784121320249777</v>
+        <v>8.660258075690655E-05</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0003568242640499554</v>
+        <v>0.0002598077422707197</v>
       </c>
       <c r="N17">
         <v>1995</v>
@@ -1223,7 +1229,7 @@
         <v>0.0003431708991077557</v>
       </c>
       <c r="I18">
-        <v>0.0005147563486616335</v>
+        <v>0.0004289636238846946</v>
       </c>
       <c r="J18">
         <v>0.0001715854495538778</v>
@@ -1252,7 +1258,7 @@
         <v>0.0005034401745259272</v>
       </c>
       <c r="D19">
-        <v>0.0004195334787716059</v>
+        <v>0.0001678133915086424</v>
       </c>
       <c r="E19">
         <v>0.001258600436314818</v>
@@ -1261,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0009229736532975332</v>
+        <v>0.0007551602617888907</v>
       </c>
       <c r="H19">
-        <v>0.0002517200872629636</v>
+        <v>8.39066957543212E-05</v>
       </c>
       <c r="I19">
-        <v>0.0005034401745259272</v>
+        <v>0.0003356267830172848</v>
       </c>
       <c r="J19">
         <v>0.0001678133915086424</v>
@@ -1340,25 +1346,25 @@
         <v>0.0004515125670997843</v>
       </c>
       <c r="D21">
-        <v>0.0002006722520443486</v>
+        <v>0.0001003361260221743</v>
       </c>
       <c r="E21">
         <v>0.00105352932323283</v>
       </c>
       <c r="F21">
-        <v>0.0001003361260221743</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0.0003010083780665229</v>
       </c>
       <c r="H21">
-        <v>0.00035117644107761</v>
+        <v>0.0002508403150554357</v>
       </c>
       <c r="I21">
         <v>0.0004013445040886971</v>
       </c>
       <c r="J21">
-        <v>5.016806301108714E-05</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>5.016806301108714E-05</v>
@@ -1446,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0003129890453834116</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1487,10 +1493,10 @@
         <v>0.0002274795268425842</v>
       </c>
       <c r="I24">
-        <v>0.001592356687898089</v>
+        <v>0.001364877161055505</v>
       </c>
       <c r="J24">
-        <v>0.0004549590536851683</v>
+        <v>0.0002274795268425842</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1522,7 +1528,7 @@
         <v>0.003166561114629513</v>
       </c>
       <c r="F25">
-        <v>0.0002111040743086342</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0.0008444162972345366</v>
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.0004139072847682119</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1616,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.001264755480607083</v>
+        <v>0.0008431703204047217</v>
       </c>
       <c r="I27">
         <v>0.0004215851602023609</v>
       </c>
       <c r="J27">
-        <v>0.0008431703204047217</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0.0004215851602023609</v>
@@ -1648,7 +1654,7 @@
         <v>0.0003728560775540641</v>
       </c>
       <c r="D28">
-        <v>0.0007457121551081282</v>
+        <v>0.0003728560775540641</v>
       </c>
       <c r="E28">
         <v>0.002237136465324385</v>
@@ -1660,13 +1666,13 @@
         <v>0.0003728560775540641</v>
       </c>
       <c r="H28">
-        <v>0.001864280387770321</v>
+        <v>0.001491424310216256</v>
       </c>
       <c r="I28">
-        <v>0.0003728560775540641</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.0003728560775540641</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1692,7 +1698,7 @@
         <v>0.0005347593582887701</v>
       </c>
       <c r="D29">
-        <v>0.0005347593582887701</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0.0005347593582887701</v>
@@ -1701,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.00106951871657754</v>
+        <v>0.0008021390374331551</v>
       </c>
       <c r="H29">
-        <v>0.00106951871657754</v>
+        <v>0.0008021390374331551</v>
       </c>
       <c r="I29">
         <v>0.0005347593582887701</v>
@@ -1736,19 +1742,19 @@
         <v>0.0008515469770082316</v>
       </c>
       <c r="D30">
-        <v>0.0005676979846721544</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0.003122338915696849</v>
       </c>
       <c r="F30">
-        <v>0.0002838489923360772</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.00198694294635254</v>
+        <v>0.001419244961680386</v>
       </c>
       <c r="H30">
-        <v>0.001135395969344309</v>
+        <v>0.0005676979846721544</v>
       </c>
       <c r="I30">
         <v>0.0005676979846721544</v>
@@ -1780,22 +1786,22 @@
         <v>0.001045369015262388</v>
       </c>
       <c r="D31">
-        <v>0.001045369015262388</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0.003972402257997073</v>
       </c>
       <c r="F31">
-        <v>0.0002090738030524775</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0.000418147606104955</v>
       </c>
       <c r="H31">
-        <v>0.002090738030524775</v>
+        <v>0.001045369015262388</v>
       </c>
       <c r="I31">
-        <v>0.000418147606104955</v>
+        <v>0.0002090738030524775</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1824,7 +1830,7 @@
         <v>0.0002242152466367713</v>
       </c>
       <c r="D32">
-        <v>0.0002242152466367713</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0.002242152466367713</v>
@@ -1912,7 +1918,7 @@
         <v>0.00043122035360069</v>
       </c>
       <c r="D34">
-        <v>0.00129366106080207</v>
+        <v>0.0008624407072013799</v>
       </c>
       <c r="E34">
         <v>0.00258732212160414</v>
@@ -1924,7 +1930,7 @@
         <v>0.00043122035360069</v>
       </c>
       <c r="H34">
-        <v>0.00301854247520483</v>
+        <v>0.00258732212160414</v>
       </c>
       <c r="I34">
         <v>0.00129366106080207</v>
@@ -2000,19 +2006,19 @@
         <v>0.0008099352051835853</v>
       </c>
       <c r="D36">
-        <v>0.0002699784017278618</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0.001349892008639309</v>
       </c>
       <c r="F36">
-        <v>0.0008099352051835853</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0.001349892008639309</v>
       </c>
       <c r="H36">
-        <v>0.00296976241900648</v>
+        <v>0.002699784017278618</v>
       </c>
       <c r="I36">
         <v>0.0002699784017278618</v>
@@ -2044,13 +2050,13 @@
         <v>0.0006259780907668231</v>
       </c>
       <c r="D37">
-        <v>0.0001564945226917058</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0.0009389671361502347</v>
       </c>
       <c r="F37">
-        <v>0.0003129890453834116</v>
+        <v>0.0001564945226917058</v>
       </c>
       <c r="G37">
         <v>0.00109546165884194</v>
@@ -2062,7 +2068,7 @@
         <v>0.0006259780907668231</v>
       </c>
       <c r="J37">
-        <v>0.000782472613458529</v>
+        <v>0.0004694835680751174</v>
       </c>
       <c r="K37">
         <v>0.0001564945226917058</v>
@@ -2088,7 +2094,7 @@
         <v>0.001002338790511193</v>
       </c>
       <c r="D38">
-        <v>0.0006682258603407952</v>
+        <v>0.0003341129301703976</v>
       </c>
       <c r="E38">
         <v>0.002004677581022385</v>
@@ -2097,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.001169395255596392</v>
+        <v>0.000835282325425994</v>
       </c>
       <c r="H38">
-        <v>0.002839959906448379</v>
+        <v>0.002672903441363181</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.0005011693952555964</v>
+        <v>0.0003341129301703976</v>
       </c>
       <c r="K38">
         <v>0.0001670564650851988</v>
@@ -2132,22 +2138,22 @@
         <v>0.0004291845493562232</v>
       </c>
       <c r="D39">
-        <v>0.0002861230329041488</v>
+        <v>0.0001430615164520744</v>
       </c>
       <c r="E39">
         <v>0.0008583690987124463</v>
       </c>
       <c r="F39">
-        <v>0.0004291845493562232</v>
+        <v>0.0001430615164520744</v>
       </c>
       <c r="G39">
-        <v>0.00128755364806867</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="H39">
         <v>0.000715307582260372</v>
       </c>
       <c r="I39">
-        <v>0.000715307582260372</v>
+        <v>0.0005722460658082976</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2176,25 +2182,25 @@
         <v>0.001640150893882237</v>
       </c>
       <c r="D40">
-        <v>0.0006560603575528948</v>
+        <v>0.0001640150893882237</v>
       </c>
       <c r="E40">
         <v>0.002132196162046908</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.001804165983270461</v>
+      </c>
+      <c r="I40">
         <v>0.0003280301787764474</v>
       </c>
-      <c r="G40">
-        <v>0.0001640150893882237</v>
-      </c>
-      <c r="H40">
-        <v>0.002296211251435132</v>
-      </c>
-      <c r="I40">
-        <v>0.0004920452681646711</v>
-      </c>
       <c r="J40">
-        <v>0.0004920452681646711</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2223,7 +2229,7 @@
         <v>0.0002375861249703017</v>
       </c>
       <c r="E41">
-        <v>0.002613447374673319</v>
+        <v>0.002375861249703017</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2238,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.0004751722499406035</v>
+        <v>0.0002375861249703017</v>
       </c>
       <c r="K41">
         <v>0.0004751722499406035</v>
@@ -2276,7 +2282,7 @@
         <v>0.000949667616334283</v>
       </c>
       <c r="H42">
-        <v>0.002374169040835707</v>
+        <v>0.001899335232668566</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2493,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.002536461636017755</v>
+        <v>0.001902346227013316</v>
       </c>
       <c r="H47">
         <v>0.0006341154090044388</v>
       </c>
       <c r="I47">
-        <v>0.0006341154090044388</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2622,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.0007558578987150416</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2631,7 +2637,7 @@
         <v>0.0007558578987150416</v>
       </c>
       <c r="I50">
-        <v>0.0007558578987150416</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0.0007558578987150416</v>
@@ -2719,7 +2725,7 @@
         <v>0.002815315315315315</v>
       </c>
       <c r="I52">
-        <v>0.0005630630630630631</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2748,28 +2754,28 @@
         <v>0.001144601297214803</v>
       </c>
       <c r="D53">
-        <v>0.0003815337657382679</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0.0003815337657382679</v>
       </c>
       <c r="F53">
-        <v>0.0003815337657382679</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0.001526135062953071</v>
       </c>
       <c r="H53">
-        <v>0.001144601297214803</v>
+        <v>0.0007630675314765357</v>
       </c>
       <c r="I53">
-        <v>0.001144601297214803</v>
+        <v>0.0003815337657382679</v>
       </c>
       <c r="J53">
         <v>0.0003815337657382679</v>
       </c>
       <c r="K53">
-        <v>0.0007630675314765357</v>
+        <v>0.0003815337657382679</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -2983,10 +2989,10 @@
         <v>0.000687757909215956</v>
       </c>
       <c r="I58">
-        <v>0.001375515818431912</v>
+        <v>0.000687757909215956</v>
       </c>
       <c r="J58">
-        <v>0.000687757909215956</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3159,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0.001801801801801802</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3197,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.001872659176029963</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3379,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0.001841620626151013</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3467,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0.006611570247933884</v>
+        <v>0.004958677685950414</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3496,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.00353356890459364</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3508,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.00353356890459364</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0.002355712603062426</v>
       </c>
       <c r="J70">
-        <v>0.001177856301531213</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>0.001177856301531213</v>
@@ -3584,7 +3590,7 @@
         <v>0.001347708894878706</v>
       </c>
       <c r="D72">
-        <v>0.001347708894878706</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3596,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0.001347708894878706</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3637,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.0009950248756218905</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3722,16 +3728,16 @@
         <v>0.000864304235090752</v>
       </c>
       <c r="F75">
-        <v>0.0001728608470181504</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.0006914433880726015</v>
+        <v>0.0005185825410544512</v>
       </c>
       <c r="H75">
         <v>0.000864304235090752</v>
       </c>
       <c r="I75">
-        <v>0.001037165082108902</v>
+        <v>0.000864304235090752</v>
       </c>
       <c r="J75">
         <v>0.0001728608470181504</v>
@@ -4045,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>0.002976190476190476</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -5133,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.00148864905098623</v>
+        <v>0.001116486788239672</v>
       </c>
       <c r="H107">
         <v>0.002605135839225902</v>
@@ -5145,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0.0003721622627465575</v>
+        <v>0</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -5177,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.0007072135785007072</v>
+        <v>0.0003536067892503536</v>
       </c>
       <c r="H108">
         <v>0.0007072135785007072</v>
@@ -5212,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.0003832886163280951</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>0.00153315446531238</v>
@@ -5221,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.0007665772326561902</v>
+        <v>0.0003832886163280951</v>
       </c>
       <c r="H109">
-        <v>0.002683020314296665</v>
+        <v>0.00229973169796857</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -5256,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0.0004098360655737705</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>0.005327868852459016</v>
@@ -5268,7 +5274,7 @@
         <v>0.000819672131147541</v>
       </c>
       <c r="H110">
-        <v>0.002459016393442623</v>
+        <v>0.002049180327868853</v>
       </c>
       <c r="I110">
         <v>0.0004098360655737705</v>
@@ -5300,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0.001518602885345482</v>
+        <v>0.001265502404454569</v>
       </c>
       <c r="E111">
         <v>0.001771703366236396</v>
@@ -5309,13 +5315,13 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0.001012401923563655</v>
+        <v>0.0002531004808909137</v>
       </c>
       <c r="H111">
         <v>0.003290306251581878</v>
       </c>
       <c r="I111">
-        <v>0.002531004808909137</v>
+        <v>0.001265502404454569</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -5394,10 +5400,10 @@
         <v>0.0006345177664974619</v>
       </c>
       <c r="F113">
-        <v>0.0003172588832487309</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>0.0009517766497461929</v>
+        <v>0.0006345177664974619</v>
       </c>
       <c r="H113">
         <v>0.00317258883248731</v>
@@ -5441,13 +5447,13 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0.0006653359946773121</v>
+        <v>0.000332667997338656</v>
       </c>
       <c r="H114">
         <v>0.00332667997338656</v>
       </c>
       <c r="I114">
-        <v>0.000332667997338656</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>0.000332667997338656</v>
@@ -5476,19 +5482,19 @@
         <v>0.0006635700066357001</v>
       </c>
       <c r="D115">
-        <v>0.0013271400132714</v>
+        <v>0.00033178500331785</v>
       </c>
       <c r="E115">
         <v>0.0019907100199071</v>
       </c>
       <c r="F115">
-        <v>0.00033178500331785</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0.00033178500331785</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>0.00165892501658925</v>
+        <v>0.0009953550099535502</v>
       </c>
       <c r="I115">
         <v>0.0006635700066357001</v>
@@ -5573,13 +5579,13 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0.001113999257333828</v>
+        <v>0.0003713330857779428</v>
       </c>
       <c r="H117">
         <v>0.001113999257333828</v>
       </c>
       <c r="I117">
-        <v>0.001113999257333828</v>
+        <v>0.0007426661715558856</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -5617,13 +5623,13 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.001064207165661582</v>
+        <v>0.000709471443774388</v>
       </c>
       <c r="H118">
         <v>0.002128414331323164</v>
       </c>
       <c r="I118">
-        <v>0.001064207165661582</v>
+        <v>0.000354735721887194</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -5667,7 +5673,7 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="I119">
-        <v>0.00125</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -5705,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>0.0003130870381966186</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>0.002504696305572949</v>
@@ -5740,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0.0006870491240123669</v>
+        <v>0.0003435245620061835</v>
       </c>
       <c r="E121">
         <v>0.0003435245620061835</v>
@@ -5749,13 +5755,13 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>0.0006870491240123669</v>
+        <v>0.0003435245620061835</v>
       </c>
       <c r="H121">
         <v>0.001374098248024734</v>
       </c>
       <c r="I121">
-        <v>0.00103057368601855</v>
+        <v>0.0006870491240123669</v>
       </c>
       <c r="J121">
         <v>0.0003435245620061835</v>
@@ -5793,13 +5799,13 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>0.002554278416347382</v>
+        <v>0.002128565346956152</v>
       </c>
       <c r="H122">
         <v>0.0008514261387824606</v>
       </c>
       <c r="I122">
-        <v>0.0006385696040868455</v>
+        <v>0.0004257130693912303</v>
       </c>
       <c r="J122">
         <v>0.0002128565346956152</v>
@@ -5828,7 +5834,7 @@
         <v>0.0003041362530413625</v>
       </c>
       <c r="D123">
-        <v>0.0003041362530413625</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5837,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0.00121654501216545</v>
+        <v>0.0006082725060827251</v>
       </c>
       <c r="H123">
         <v>0.001520681265206813</v>
       </c>
       <c r="I123">
-        <v>0.001824817518248175</v>
+        <v>0.001520681265206813</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5872,22 +5878,22 @@
         <v>0.0005459260270233384</v>
       </c>
       <c r="D124">
-        <v>0.0009553705472908421</v>
+        <v>0.0001364815067558346</v>
       </c>
       <c r="E124">
         <v>0.0006824075337791729</v>
       </c>
       <c r="F124">
-        <v>0.0001364815067558346</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>0.002047222601337519</v>
+        <v>0.001637778081070015</v>
       </c>
       <c r="H124">
-        <v>0.003139074655384196</v>
+        <v>0.002593148628360857</v>
       </c>
       <c r="I124">
-        <v>0.001091852054046677</v>
+        <v>0.0009553705472908421</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5916,25 +5922,25 @@
         <v>0.0001594642002870355</v>
       </c>
       <c r="D125">
-        <v>0.0001594642002870355</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>0.001594642002870356</v>
       </c>
       <c r="F125">
-        <v>0.0001594642002870355</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>0.0003189284005740711</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>0.0001594642002870355</v>
       </c>
       <c r="I125">
-        <v>0.001116249402009249</v>
+        <v>0.0007973210014351779</v>
       </c>
       <c r="J125">
-        <v>0.0001594642002870355</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>0.0001594642002870355</v>
@@ -6010,16 +6016,16 @@
         <v>0.0009727626459143969</v>
       </c>
       <c r="F127">
-        <v>0.0003242542153047989</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <v>0.0003242542153047989</v>
       </c>
       <c r="H127">
+        <v>0.0003242542153047989</v>
+      </c>
+      <c r="I127">
         <v>0.0006485084306095979</v>
-      </c>
-      <c r="I127">
-        <v>0.002269779507133593</v>
       </c>
       <c r="J127">
         <v>0.0003242542153047989</v>
@@ -6048,7 +6054,7 @@
         <v>0.0001431024613623354</v>
       </c>
       <c r="D128">
-        <v>0.0002862049227246708</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>0.0005724098454493417</v>
@@ -6060,10 +6066,10 @@
         <v>0.0001431024613623354</v>
       </c>
       <c r="H128">
-        <v>0.0008586147681740126</v>
+        <v>0.0002862049227246708</v>
       </c>
       <c r="I128">
-        <v>0.0007155123068116772</v>
+        <v>0.0002862049227246708</v>
       </c>
       <c r="J128">
         <v>0.0005724098454493417</v>
@@ -6098,16 +6104,16 @@
         <v>0.001302648719062093</v>
       </c>
       <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0.0008684324793747286</v>
+      </c>
+      <c r="H129">
         <v>0.0002171081198436822</v>
       </c>
-      <c r="G129">
-        <v>0.001302648719062093</v>
-      </c>
-      <c r="H129">
+      <c r="I129">
         <v>0.0004342162396873643</v>
-      </c>
-      <c r="I129">
-        <v>0.0008684324793747286</v>
       </c>
       <c r="J129">
         <v>0.0002171081198436822</v>
@@ -6142,7 +6148,7 @@
         <v>0.002199661590524535</v>
       </c>
       <c r="F130">
-        <v>0.0001692047377326565</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>0.000338409475465313</v>
@@ -6151,10 +6157,10 @@
         <v>0.0001692047377326565</v>
       </c>
       <c r="I130">
-        <v>0.001353637901861252</v>
+        <v>0.0006768189509306261</v>
       </c>
       <c r="J130">
-        <v>0.000338409475465313</v>
+        <v>0.0001692047377326565</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -6186,16 +6192,16 @@
         <v>0.000631911532385466</v>
       </c>
       <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
         <v>0.0001579778830963665</v>
       </c>
-      <c r="G131">
-        <v>0.000315955766192733</v>
-      </c>
       <c r="H131">
-        <v>0.000315955766192733</v>
+        <v>0.0001579778830963665</v>
       </c>
       <c r="I131">
-        <v>0.001263823064770932</v>
+        <v>0.0009478672985781991</v>
       </c>
       <c r="J131">
         <v>0.000315955766192733</v>
@@ -6230,22 +6236,22 @@
         <v>0.001382934587194026</v>
       </c>
       <c r="F132">
-        <v>0.0004148803761582077</v>
+        <v>0</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0.0002765869174388052</v>
+        <v>0.0001382934587194026</v>
       </c>
       <c r="I132">
-        <v>0.0006914672935970129</v>
+        <v>0.0001382934587194026</v>
       </c>
       <c r="J132">
         <v>0.0001382934587194026</v>
       </c>
       <c r="K132">
-        <v>0.0001382934587194026</v>
+        <v>0</v>
       </c>
       <c r="L132">
         <v>0.0004148803761582077</v>
@@ -6268,22 +6274,22 @@
         <v>0.0003919519205644108</v>
       </c>
       <c r="D133">
-        <v>0.0001306506401881369</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>0.0002613012803762738</v>
       </c>
       <c r="F133">
-        <v>0.0001306506401881369</v>
+        <v>0</v>
       </c>
       <c r="G133">
         <v>0.0002613012803762738</v>
       </c>
       <c r="H133">
-        <v>0.0006532532009406846</v>
+        <v>0.0002613012803762738</v>
       </c>
       <c r="I133">
-        <v>0.0005226025607525476</v>
+        <v>0.0003919519205644108</v>
       </c>
       <c r="J133">
         <v>0.0001306506401881369</v>
@@ -6350,7 +6356,7 @@
         <v>17</v>
       </c>
       <c r="B135">
-        <v>0.03752181500872601</v>
+        <v>0.03752590814879459</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6359,31 +6365,31 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0.0002181500872600349</v>
+        <v>0.0002181738845860151</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0.0005453752181500873</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>0.0003272251308900524</v>
+        <v>0.0003272608268790226</v>
       </c>
       <c r="I135">
-        <v>0.00130890052356021</v>
+        <v>0.0008726955383440602</v>
       </c>
       <c r="J135">
-        <v>0.0001090750436300175</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>0.0002181500872600349</v>
+        <v>0.0002181738845860151</v>
       </c>
       <c r="L135">
-        <v>0.0002181500872600349</v>
+        <v>0.0002181738845860151</v>
       </c>
       <c r="M135">
-        <v>0.0004363001745200698</v>
+        <v>0.0004363477691720301</v>
       </c>
       <c r="N135">
         <v>1990</v>
@@ -6394,40 +6400,40 @@
         <v>17</v>
       </c>
       <c r="B136">
-        <v>999</v>
+        <v>0.05043050430504305</v>
       </c>
       <c r="C136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>999</v>
+        <v>0.002460024600246003</v>
       </c>
       <c r="F136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>999</v>
+        <v>0.001230012300123001</v>
       </c>
       <c r="L136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="M136">
-        <v>999</v>
+        <v>0.001230012300123001</v>
       </c>
       <c r="N136">
         <v>1991</v>
@@ -6450,13 +6456,13 @@
         <v>0.001842638658559057</v>
       </c>
       <c r="F137">
-        <v>0.0003685277317118113</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0.0005527915975677169</v>
       </c>
       <c r="H137">
-        <v>0.00128984706099134</v>
+        <v>0.001105583195135434</v>
       </c>
       <c r="I137">
         <v>0.0009213193292795283</v>
@@ -6488,25 +6494,25 @@
         <v>0.0003399048266485384</v>
       </c>
       <c r="D138">
-        <v>0.0006798096532970768</v>
+        <v>0.0003399048266485384</v>
       </c>
       <c r="E138">
         <v>0.001699524133242692</v>
       </c>
       <c r="F138">
-        <v>0.0003399048266485384</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>0.001699524133242692</v>
+        <v>0.0006798096532970768</v>
       </c>
       <c r="H138">
-        <v>0.001019714479945615</v>
+        <v>0.0006798096532970768</v>
       </c>
       <c r="I138">
         <v>0.0006798096532970768</v>
       </c>
       <c r="J138">
-        <v>0.0003399048266485384</v>
+        <v>0</v>
       </c>
       <c r="K138">
         <v>0.001019714479945615</v>
@@ -6570,37 +6576,37 @@
         <v>17</v>
       </c>
       <c r="B140">
-        <v>0.0541871921182266</v>
+        <v>0.03588105185549275</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>0.0007372818874416319</v>
       </c>
       <c r="E140">
-        <v>0.004926108374384237</v>
+        <v>0.001966085033177685</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.0002457606291472106</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>0.0004915212582944212</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>0.0009830425165888424</v>
       </c>
       <c r="J140">
-        <v>0.002463054187192118</v>
+        <v>0.0004915212582944212</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>0.001228803145736053</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>0.0002457606291472106</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -6629,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>0.0006887052341597796</v>
+        <v>0.0004591368227731864</v>
       </c>
       <c r="H141">
         <v>0.0002295684113865932</v>
@@ -6670,10 +6676,10 @@
         <v>0.001788451711803781</v>
       </c>
       <c r="F142">
-        <v>0.0002554931016862545</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>0.001532958610117527</v>
+        <v>0.001021972406745018</v>
       </c>
       <c r="H142">
         <v>0.0002554931016862545</v>
@@ -6708,22 +6714,22 @@
         <v>0.0002884338044418806</v>
       </c>
       <c r="D143">
-        <v>0.001153735217767522</v>
+        <v>0.0005768676088837611</v>
       </c>
       <c r="E143">
         <v>0.0008653014133256418</v>
       </c>
       <c r="F143">
-        <v>0.0002884338044418806</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>0.0005768676088837611</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>0.0002884338044418806</v>
       </c>
       <c r="I143">
-        <v>0.001730602826651284</v>
+        <v>0.001442169022209403</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -6746,40 +6752,40 @@
         <v>17</v>
       </c>
       <c r="B144">
-        <v>999</v>
+        <v>0.03152022315202232</v>
       </c>
       <c r="C144">
-        <v>999</v>
+        <v>0.0002789400278940028</v>
       </c>
       <c r="D144">
-        <v>999</v>
+        <v>0.0002789400278940028</v>
       </c>
       <c r="E144">
-        <v>999</v>
+        <v>0.002510460251046025</v>
       </c>
       <c r="F144">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>999</v>
+        <v>0.0002789400278940028</v>
       </c>
       <c r="H144">
-        <v>999</v>
+        <v>0.0008368200836820083</v>
       </c>
       <c r="I144">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>999</v>
+        <v>0.0002789400278940028</v>
       </c>
       <c r="M144">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N144">
         <v>1999</v>
@@ -6796,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0.0003944773175542406</v>
+        <v>0</v>
       </c>
       <c r="E145">
         <v>0.001577909270216962</v>
@@ -6808,13 +6814,13 @@
         <v>0.0007889546351084812</v>
       </c>
       <c r="H145">
-        <v>0.001972386587771203</v>
+        <v>0.001183431952662722</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145">
-        <v>0.0003944773175542406</v>
+        <v>0</v>
       </c>
       <c r="K145">
         <v>0.001183431952662722</v>
@@ -6849,7 +6855,7 @@
         <v>0.001460564751703992</v>
       </c>
       <c r="G146">
-        <v>0.0004868549172346641</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>0.0009737098344693282</v>
@@ -6861,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>0.001460564751703992</v>
+        <v>0.0009737098344693282</v>
       </c>
       <c r="L146">
         <v>0</v>
@@ -6928,7 +6934,7 @@
         <v>0.000275178866263071</v>
       </c>
       <c r="D148">
-        <v>0.000275178866263071</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -6940,10 +6946,10 @@
         <v>0.000550357732526142</v>
       </c>
       <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
         <v>0.000275178866263071</v>
-      </c>
-      <c r="I148">
-        <v>0.000825536598789213</v>
       </c>
       <c r="J148">
         <v>0.000275178866263071</v>
@@ -6972,13 +6978,13 @@
         <v>0.000301295570955107</v>
       </c>
       <c r="D149">
-        <v>0.0006025911419102139</v>
+        <v>0.000301295570955107</v>
       </c>
       <c r="E149">
         <v>0.0009038867128653209</v>
       </c>
       <c r="F149">
-        <v>0.000301295570955107</v>
+        <v>0</v>
       </c>
       <c r="G149">
         <v>0.000301295570955107</v>
@@ -6987,7 +6993,7 @@
         <v>0.000301295570955107</v>
       </c>
       <c r="I149">
-        <v>0.002109068996685749</v>
+        <v>0.0006025911419102139</v>
       </c>
       <c r="J149">
         <v>0.001205182283820428</v>
@@ -7069,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <v>0.002277904328018223</v>
+        <v>0.001518602885345482</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -7119,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="I152">
-        <v>0.001495327102803738</v>
+        <v>0.001121495327102804</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -7236,25 +7242,25 @@
         <v>0.0005764519383196426</v>
       </c>
       <c r="D155">
-        <v>0.0002882259691598213</v>
+        <v>0.0001441129845799107</v>
       </c>
       <c r="E155">
         <v>0.001152903876639285</v>
       </c>
       <c r="F155">
-        <v>0.0001441129845799107</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>0.0007205649228995533</v>
+        <v>0.0004323389537397319</v>
       </c>
       <c r="H155">
+        <v>0.0004323389537397319</v>
+      </c>
+      <c r="I155">
         <v>0.0005764519383196426</v>
       </c>
-      <c r="I155">
-        <v>0.0008646779074794639</v>
-      </c>
       <c r="J155">
-        <v>0.0007205649228995533</v>
+        <v>0.0004323389537397319</v>
       </c>
       <c r="K155">
         <v>0.0001441129845799107</v>
@@ -7280,25 +7286,25 @@
         <v>0.0003453634950785702</v>
       </c>
       <c r="D156">
-        <v>0.0003453634950785702</v>
+        <v>0.0001726817475392851</v>
       </c>
       <c r="E156">
         <v>0.00103609048523571</v>
       </c>
       <c r="F156">
-        <v>0.0008634087376964255</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>0.0003453634950785702</v>
+        <v>0.0001726817475392851</v>
       </c>
       <c r="H156">
         <v>0.00103609048523571</v>
       </c>
       <c r="I156">
-        <v>0.00103609048523571</v>
+        <v>0.0008634087376964255</v>
       </c>
       <c r="J156">
-        <v>0.0006907269901571404</v>
+        <v>0.0003453634950785702</v>
       </c>
       <c r="K156">
         <v>0.0003453634950785702</v>
@@ -7324,25 +7330,25 @@
         <v>0.001413855786709756</v>
       </c>
       <c r="D157">
-        <v>0.001211876388608362</v>
+        <v>0.0002019793981013936</v>
       </c>
       <c r="E157">
         <v>0.000605938194304181</v>
       </c>
       <c r="F157">
-        <v>0.000605938194304181</v>
+        <v>0.0002019793981013936</v>
       </c>
       <c r="G157">
-        <v>0.0008079175924055746</v>
+        <v>0.0002019793981013936</v>
       </c>
       <c r="H157">
-        <v>0.002423752777216724</v>
+        <v>0.001615835184811149</v>
       </c>
       <c r="I157">
-        <v>0.000605938194304181</v>
+        <v>0.0004039587962027873</v>
       </c>
       <c r="J157">
-        <v>0.0002019793981013936</v>
+        <v>0</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -7374,16 +7380,16 @@
         <v>0.0005915409642117716</v>
       </c>
       <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
         <v>0.0002957704821058858</v>
       </c>
-      <c r="G158">
-        <v>0.0005915409642117716</v>
-      </c>
       <c r="H158">
-        <v>0.001183081928423543</v>
+        <v>0.0008873114463176575</v>
       </c>
       <c r="I158">
-        <v>0.001774622892635315</v>
+        <v>0.0008873114463176575</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -7418,7 +7424,7 @@
         <v>0.001215657670799903</v>
       </c>
       <c r="F159">
-        <v>0.0007293946024799417</v>
+        <v>0</v>
       </c>
       <c r="G159">
         <v>0.0004862630683199611</v>
@@ -7456,16 +7462,16 @@
         <v>0.0002516356316054353</v>
       </c>
       <c r="D160">
-        <v>0.0002516356316054353</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>0.0005032712632108706</v>
       </c>
       <c r="F160">
-        <v>0.000754906894816306</v>
+        <v>0.0002516356316054353</v>
       </c>
       <c r="G160">
-        <v>0.000754906894816306</v>
+        <v>0.0002516356316054353</v>
       </c>
       <c r="H160">
         <v>0.0002516356316054353</v>
@@ -7474,7 +7480,7 @@
         <v>0.001258178158027177</v>
       </c>
       <c r="J160">
-        <v>0.0005032712632108706</v>
+        <v>0</v>
       </c>
       <c r="K160">
         <v>0.0005032712632108706</v>
@@ -7550,19 +7556,19 @@
         <v>0.0009119927040583675</v>
       </c>
       <c r="F162">
-        <v>0.001139990880072959</v>
+        <v>0</v>
       </c>
       <c r="G162">
         <v>0.0002279981760145919</v>
       </c>
       <c r="H162">
-        <v>0.0009119927040583675</v>
+        <v>0.0004559963520291838</v>
       </c>
       <c r="I162">
         <v>0.0009119927040583675</v>
       </c>
       <c r="J162">
-        <v>0.0004559963520291838</v>
+        <v>0.0002279981760145919</v>
       </c>
       <c r="K162">
         <v>0.0009119927040583675</v>
@@ -7591,22 +7597,22 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0.0009728809436945154</v>
+        <v>0.000851270825732701</v>
       </c>
       <c r="F163">
-        <v>0.0003648303538854433</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>0.0002432202359236289</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>0.0003648303538854433</v>
       </c>
       <c r="I163">
-        <v>0.000851270825732701</v>
+        <v>0.0006080505898090721</v>
       </c>
       <c r="J163">
-        <v>0.0003648303538854433</v>
+        <v>0.0001216101179618144</v>
       </c>
       <c r="K163">
         <v>0.0001216101179618144</v>
@@ -7632,25 +7638,25 @@
         <v>0.0009398496240601503</v>
       </c>
       <c r="D164">
-        <v>0.0001879699248120301</v>
+        <v>9.398496240601504E-05</v>
       </c>
       <c r="E164">
         <v>0.001409774436090225</v>
       </c>
       <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
         <v>0.0006578947368421052</v>
       </c>
-      <c r="G164">
-        <v>0.0009398496240601503</v>
-      </c>
       <c r="H164">
-        <v>0.0005639097744360903</v>
+        <v>0.0002819548872180451</v>
       </c>
       <c r="I164">
-        <v>0.001033834586466165</v>
+        <v>0.0008458646616541353</v>
       </c>
       <c r="J164">
-        <v>0.0001879699248120301</v>
+        <v>9.398496240601504E-05</v>
       </c>
       <c r="K164">
         <v>0.002067669172932331</v>
@@ -7676,25 +7682,25 @@
         <v>0.001242428948594502</v>
       </c>
       <c r="D165">
-        <v>0.0003106072371486256</v>
+        <v>0.0001553036185743128</v>
       </c>
       <c r="E165">
         <v>0.001553036185743128</v>
       </c>
       <c r="F165">
-        <v>0.0003106072371486256</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0.0007765180928715639</v>
       </c>
       <c r="H165">
-        <v>0.001553036185743128</v>
+        <v>0.001397732567168815</v>
       </c>
       <c r="I165">
-        <v>0.002018947041466066</v>
+        <v>0.00108712533002019</v>
       </c>
       <c r="J165">
-        <v>0.0007765180928715639</v>
+        <v>0.0004659108557229384</v>
       </c>
       <c r="K165">
         <v>0.004193197701506445</v>
@@ -8606,13 +8612,13 @@
         <v>0.001770694997786631</v>
       </c>
       <c r="F186">
-        <v>0.0004426737494466578</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>0.001770694997786631</v>
+        <v>0.001328021248339973</v>
       </c>
       <c r="H186">
-        <v>0.001328021248339973</v>
+        <v>0.0008853474988933156</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -8688,7 +8694,7 @@
         <v>0.0002369668246445498</v>
       </c>
       <c r="D188">
-        <v>0.001658767772511848</v>
+        <v>0.0002369668246445498</v>
       </c>
       <c r="E188">
         <v>0.002606635071090047</v>
@@ -8700,10 +8706,10 @@
         <v>0.0007109004739336493</v>
       </c>
       <c r="H188">
-        <v>0.001895734597156398</v>
+        <v>0.0007109004739336493</v>
       </c>
       <c r="I188">
-        <v>0.0009478672985781991</v>
+        <v>0.0007109004739336493</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -8732,16 +8738,16 @@
         <v>0.001200960768614892</v>
       </c>
       <c r="D189">
-        <v>0.0004003202562049639</v>
+        <v>0.000200160128102482</v>
       </c>
       <c r="E189">
         <v>0.002401921537229784</v>
       </c>
       <c r="F189">
-        <v>0.000200160128102482</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>0.000200160128102482</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>0.0004003202562049639</v>
@@ -8776,7 +8782,7 @@
         <v>0.001430274135876043</v>
       </c>
       <c r="D190">
-        <v>0.0004767580452920143</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <v>0.003814064362336114</v>
@@ -8791,7 +8797,7 @@
         <v>0.001907032181168057</v>
       </c>
       <c r="I190">
-        <v>0.0007151370679380214</v>
+        <v>0.0004767580452920143</v>
       </c>
       <c r="J190">
         <v>0.0002383790226460072</v>
@@ -8820,7 +8826,7 @@
         <v>0.001247816321437484</v>
       </c>
       <c r="D191">
-        <v>0.0007486897928624906</v>
+        <v>0.0004991265285749938</v>
       </c>
       <c r="E191">
         <v>0.001247816321437484</v>
@@ -8838,7 +8844,7 @@
         <v>0.0009982530571499876</v>
       </c>
       <c r="J191">
-        <v>0.0002495632642874969</v>
+        <v>0</v>
       </c>
       <c r="K191">
         <v>0.0004991265285749938</v>
@@ -8864,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>0.00208768267223382</v>
+        <v>0</v>
       </c>
       <c r="E192">
         <v>0.00208768267223382</v>
@@ -8876,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>0.00208768267223382</v>
+        <v>0</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -8885,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>0.00208768267223382</v>
+        <v>0</v>
       </c>
       <c r="L192">
         <v>0</v>
@@ -8917,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="G193">
-        <v>0.0005227391531625719</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>0.002090956612650287</v>
@@ -8929,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>0.0005227391531625719</v>
+        <v>0</v>
       </c>
       <c r="L193">
         <v>0</v>
@@ -8952,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>0.001156403584851113</v>
+        <v>0</v>
       </c>
       <c r="E194">
         <v>0.004914715235617231</v>
@@ -8964,10 +8970,10 @@
         <v>0.0008673026886383347</v>
       </c>
       <c r="H194">
-        <v>0.002312807169702226</v>
+        <v>0.001734605377276669</v>
       </c>
       <c r="I194">
-        <v>0.001445504481063891</v>
+        <v>0.0008673026886383347</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -8996,22 +9002,22 @@
         <v>0.0006635700066357001</v>
       </c>
       <c r="D195">
-        <v>0.0006635700066357001</v>
+        <v>0</v>
       </c>
       <c r="E195">
         <v>0.0046449900464499</v>
       </c>
       <c r="F195">
-        <v>0.0013271400132714</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>0.0013271400132714</v>
       </c>
       <c r="H195">
-        <v>0.0013271400132714</v>
+        <v>0.0006635700066357001</v>
       </c>
       <c r="I195">
-        <v>0.0013271400132714</v>
+        <v>0.0006635700066357001</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -9102,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>0.001733102253032929</v>
+        <v>0</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -9172,7 +9178,7 @@
         <v>0.000930809804529941</v>
       </c>
       <c r="D199">
-        <v>0.0006205398696866273</v>
+        <v>0</v>
       </c>
       <c r="E199">
         <v>0.004964318957493019</v>
@@ -9181,13 +9187,13 @@
         <v>0</v>
       </c>
       <c r="G199">
-        <v>0.0003102699348433137</v>
+        <v>0</v>
       </c>
       <c r="H199">
         <v>0.0006205398696866273</v>
       </c>
       <c r="I199">
-        <v>0.001241079739373255</v>
+        <v>0.000930809804529941</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -9216,7 +9222,7 @@
         <v>0.0003824091778202677</v>
       </c>
       <c r="D200">
-        <v>0.0007648183556405354</v>
+        <v>0.0003824091778202677</v>
       </c>
       <c r="E200">
         <v>0.003824091778202677</v>
@@ -9234,7 +9240,7 @@
         <v>0.0007648183556405354</v>
       </c>
       <c r="J200">
-        <v>0.0003824091778202677</v>
+        <v>0</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -9260,7 +9266,7 @@
         <v>0.0004308487720809996</v>
       </c>
       <c r="D201">
-        <v>0.001292546316242999</v>
+        <v>0.0004308487720809996</v>
       </c>
       <c r="E201">
         <v>0.003877638948728996</v>
@@ -9269,13 +9275,13 @@
         <v>0</v>
       </c>
       <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0.001723395088323998</v>
+      </c>
+      <c r="I201">
         <v>0.0004308487720809996</v>
-      </c>
-      <c r="H201">
-        <v>0.002585092632485997</v>
-      </c>
-      <c r="I201">
-        <v>0.0008616975441619991</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -9310,7 +9316,7 @@
         <v>0.003769520732364028</v>
       </c>
       <c r="F202">
-        <v>0.0005385029617662897</v>
+        <v>0</v>
       </c>
       <c r="G202">
         <v>0.001077005923532579</v>
@@ -9348,7 +9354,7 @@
         <v>0.001616814874696847</v>
       </c>
       <c r="D203">
-        <v>0.001212611156022636</v>
+        <v>0.0004042037186742118</v>
       </c>
       <c r="E203">
         <v>0.002021018593371059</v>
@@ -9357,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="G203">
-        <v>0.0008084074373484236</v>
+        <v>0.0004042037186742118</v>
       </c>
       <c r="H203">
         <v>0.001616814874696847</v>
@@ -9369,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="K203">
-        <v>0.0004042037186742118</v>
+        <v>0</v>
       </c>
       <c r="L203">
         <v>0</v>
@@ -9392,7 +9398,7 @@
         <v>0.001098297638660077</v>
       </c>
       <c r="D204">
-        <v>0.0005491488193300384</v>
+        <v>0.0002745744096650192</v>
       </c>
       <c r="E204">
         <v>0.003844041735310269</v>
@@ -9401,13 +9407,13 @@
         <v>0.0002745744096650192</v>
       </c>
       <c r="G204">
-        <v>0.0008237232289950577</v>
+        <v>0.0005491488193300384</v>
       </c>
       <c r="H204">
         <v>0.001922020867655135</v>
       </c>
       <c r="I204">
-        <v>0.0008237232289950577</v>
+        <v>0.0005491488193300384</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -9436,7 +9442,7 @@
         <v>0.0008134490238611713</v>
       </c>
       <c r="D205">
-        <v>0.0005422993492407809</v>
+        <v>0</v>
       </c>
       <c r="E205">
         <v>0.001898047722342733</v>
@@ -9448,13 +9454,13 @@
         <v>0.0002711496746203905</v>
       </c>
       <c r="H205">
-        <v>0.001355748373101952</v>
+        <v>0.0008134490238611713</v>
       </c>
       <c r="I205">
-        <v>0.001084598698481562</v>
+        <v>0.0008134490238611713</v>
       </c>
       <c r="J205">
-        <v>0.0005422993492407809</v>
+        <v>0</v>
       </c>
       <c r="K205">
         <v>0.0002711496746203905</v>
@@ -9480,7 +9486,7 @@
         <v>0.0003487966515521451</v>
       </c>
       <c r="D206">
-        <v>0.00139518660620858</v>
+        <v>0.0003487966515521451</v>
       </c>
       <c r="E206">
         <v>0.006278339727938612</v>
@@ -9495,7 +9501,7 @@
         <v>0.001046389954656435</v>
       </c>
       <c r="I206">
-        <v>0.003139169863969306</v>
+        <v>0.002790373212417161</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -10404,7 +10410,7 @@
         <v>0.0001244090569793481</v>
       </c>
       <c r="D227">
-        <v>0.0008708633988554367</v>
+        <v>0.0004976362279173924</v>
       </c>
       <c r="E227">
         <v>0.001617317740731525</v>
@@ -10419,13 +10425,13 @@
         <v>0.0002488181139586962</v>
       </c>
       <c r="I227">
-        <v>0.0006220452848967405</v>
+        <v>0.0004976362279173924</v>
       </c>
       <c r="J227">
         <v>0.0001244090569793481</v>
       </c>
       <c r="K227">
-        <v>0.0004976362279173924</v>
+        <v>0.0002488181139586962</v>
       </c>
       <c r="L227">
         <v>0.0001244090569793481</v>
@@ -10448,7 +10454,7 @@
         <v>0.0007593014426727411</v>
       </c>
       <c r="D228">
-        <v>0.0007593014426727411</v>
+        <v>0.0003796507213363706</v>
       </c>
       <c r="E228">
         <v>0.001898253606681853</v>
@@ -10457,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>0.001138952164009112</v>
+        <v>0.0003796507213363706</v>
       </c>
       <c r="H228">
         <v>0.0007593014426727411</v>
@@ -10466,7 +10472,7 @@
         <v>0.0007593014426727411</v>
       </c>
       <c r="J228">
-        <v>0.0003796507213363706</v>
+        <v>0</v>
       </c>
       <c r="K228">
         <v>0.0003796507213363706</v>
@@ -10492,7 +10498,7 @@
         <v>0.00053085600530856</v>
       </c>
       <c r="D229">
-        <v>0.00039814200398142</v>
+        <v>0.00026542800265428</v>
       </c>
       <c r="E229">
         <v>0.00212342402123424</v>
@@ -10501,19 +10507,19 @@
         <v>0</v>
       </c>
       <c r="G229">
-        <v>0.0007962840079628401</v>
+        <v>0.0006635700066357001</v>
       </c>
       <c r="H229">
         <v>0.00026542800265428</v>
       </c>
       <c r="I229">
-        <v>0.00145985401459854</v>
+        <v>0.00106171201061712</v>
       </c>
       <c r="J229">
-        <v>0.00013271400132714</v>
+        <v>0</v>
       </c>
       <c r="K229">
-        <v>0.0013271400132714</v>
+        <v>0.00119442601194426</v>
       </c>
       <c r="L229">
         <v>0.00026542800265428</v>
@@ -10545,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="G230">
-        <v>0.001261034047919294</v>
+        <v>0.0007566204287515763</v>
       </c>
       <c r="H230">
         <v>0.0002522068095838588</v>
@@ -10580,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>0.0006149116064565719</v>
+        <v>0.000307455803228286</v>
       </c>
       <c r="E231">
         <v>0.002152190622598001</v>
@@ -10589,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="G231">
-        <v>0.0007686395080707148</v>
+        <v>0.0004611837048424289</v>
       </c>
       <c r="H231">
         <v>0.0006149116064565719</v>
       </c>
       <c r="I231">
-        <v>0.0009223674096848578</v>
+        <v>0.0007686395080707148</v>
       </c>
       <c r="J231">
-        <v>0.000307455803228286</v>
+        <v>0</v>
       </c>
       <c r="K231">
         <v>0.000307455803228286</v>
@@ -10630,7 +10636,7 @@
         <v>0.002919175332968436</v>
       </c>
       <c r="F232">
-        <v>0.0001824484583105273</v>
+        <v>0</v>
       </c>
       <c r="G232">
         <v>0.0003648969166210545</v>
@@ -10668,16 +10674,16 @@
         <v>0.001100917431192661</v>
       </c>
       <c r="D233">
-        <v>0.001467889908256881</v>
+        <v>0.0007339449541284404</v>
       </c>
       <c r="E233">
         <v>0.004036697247706422</v>
       </c>
       <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
         <v>0.0007339449541284404</v>
-      </c>
-      <c r="G233">
-        <v>0.001834862385321101</v>
       </c>
       <c r="H233">
         <v>0.0003669724770642202</v>
@@ -10712,7 +10718,7 @@
         <v>0.0005624296962879641</v>
       </c>
       <c r="D234">
-        <v>0.000843644544431946</v>
+        <v>0.000281214848143982</v>
       </c>
       <c r="E234">
         <v>0.002530933633295838</v>
@@ -10721,16 +10727,16 @@
         <v>0</v>
       </c>
       <c r="G234">
-        <v>0.000281214848143982</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>0.00140607424071991</v>
+        <v>0.001124859392575928</v>
       </c>
       <c r="I234">
         <v>0.001968503937007874</v>
       </c>
       <c r="J234">
-        <v>0.0005624296962879641</v>
+        <v>0.000281214848143982</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -10756,7 +10762,7 @@
         <v>0.0009521542489883361</v>
       </c>
       <c r="D235">
-        <v>0.001666269935729588</v>
+        <v>0.000238038562247084</v>
       </c>
       <c r="E235">
         <v>0.002856462746965008</v>
@@ -10800,22 +10806,22 @@
         <v>0.0001286835671084803</v>
       </c>
       <c r="D236">
-        <v>0.0003860507013254407</v>
+        <v>0</v>
       </c>
       <c r="E236">
         <v>0.002702354909278085</v>
       </c>
       <c r="F236">
-        <v>0.0002573671342169605</v>
+        <v>0</v>
       </c>
       <c r="G236">
-        <v>0.0009007849697593617</v>
+        <v>0.0007721014026508815</v>
       </c>
       <c r="H236">
-        <v>0.001029468536867842</v>
+        <v>0.0007721014026508815</v>
       </c>
       <c r="I236">
-        <v>0.0009007849697593617</v>
+        <v>0.0007721014026508815</v>
       </c>
       <c r="J236">
         <v>0.0001286835671084803</v>
@@ -10844,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>0.002754820936639119</v>
+        <v>0.0006887052341597796</v>
       </c>
       <c r="E237">
         <v>0.0006887052341597796</v>
@@ -10894,19 +10900,19 @@
         <v>0.001266891891891892</v>
       </c>
       <c r="F238">
-        <v>0.0004222972972972973</v>
+        <v>0</v>
       </c>
       <c r="G238">
         <v>0.0004222972972972973</v>
       </c>
       <c r="H238">
-        <v>0.002533783783783784</v>
+        <v>0.0008445945945945946</v>
       </c>
       <c r="I238">
         <v>0.0004222972972972973</v>
       </c>
       <c r="J238">
-        <v>0.0008445945945945946</v>
+        <v>0.0004222972972972973</v>
       </c>
       <c r="K238">
         <v>0.0004222972972972973</v>
@@ -10947,7 +10953,7 @@
         <v>0.001151410477835348</v>
       </c>
       <c r="I239">
-        <v>0.0005757052389176742</v>
+        <v>0</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -10982,13 +10988,13 @@
         <v>0.001741149158444573</v>
       </c>
       <c r="F240">
-        <v>0.0005803830528148578</v>
+        <v>0</v>
       </c>
       <c r="G240">
         <v>0.0005803830528148578</v>
       </c>
       <c r="H240">
-        <v>0.001160766105629716</v>
+        <v>0.0005803830528148578</v>
       </c>
       <c r="I240">
         <v>0.0005803830528148578</v>
@@ -11020,16 +11026,16 @@
         <v>0.001477104874446086</v>
       </c>
       <c r="D241">
-        <v>0.0004923682914820286</v>
+        <v>0</v>
       </c>
       <c r="E241">
         <v>0.0009847365829640572</v>
       </c>
       <c r="F241">
-        <v>0.0004923682914820286</v>
+        <v>0</v>
       </c>
       <c r="G241">
-        <v>0.0004923682914820286</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>0.0004923682914820286</v>
@@ -11064,7 +11070,7 @@
         <v>0.00209643605870021</v>
       </c>
       <c r="D242">
-        <v>0.0005241090146750524</v>
+        <v>0</v>
       </c>
       <c r="E242">
         <v>0.001572327044025157</v>
@@ -11108,7 +11114,7 @@
         <v>0.001682793437105595</v>
       </c>
       <c r="D243">
-        <v>0.0004206983592763988</v>
+        <v>0</v>
       </c>
       <c r="E243">
         <v>0.002944888514934792</v>
@@ -11161,10 +11167,10 @@
         <v>0</v>
       </c>
       <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
         <v>0.0007902015013828526</v>
-      </c>
-      <c r="H244">
-        <v>0.001185302252074279</v>
       </c>
       <c r="I244">
         <v>0.0007902015013828526</v>
@@ -11196,7 +11202,7 @@
         <v>0.001740644038294169</v>
       </c>
       <c r="D245">
-        <v>0.0004351610095735422</v>
+        <v>0</v>
       </c>
       <c r="E245">
         <v>0.002610966057441253</v>
@@ -12296,7 +12302,7 @@
         <v>0.0007488766849725411</v>
       </c>
       <c r="D270">
-        <v>0.0004992511233150275</v>
+        <v>0.0002496255616575137</v>
       </c>
       <c r="E270">
         <v>0.001497753369945082</v>
@@ -12305,10 +12311,10 @@
         <v>0</v>
       </c>
       <c r="G270">
-        <v>0.000998502246630055</v>
+        <v>0.0004992511233150275</v>
       </c>
       <c r="H270">
-        <v>0.0004992511233150275</v>
+        <v>0</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -12352,7 +12358,7 @@
         <v>0.001556662515566625</v>
       </c>
       <c r="H271">
-        <v>0.0006226650062266501</v>
+        <v>0</v>
       </c>
       <c r="I271">
         <v>0.0006226650062266501</v>
@@ -12361,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="K271">
-        <v>0.000311332503113325</v>
+        <v>0</v>
       </c>
       <c r="L271">
         <v>0</v>
@@ -12390,16 +12396,16 @@
         <v>0.001023279611153748</v>
       </c>
       <c r="F272">
-        <v>0.000255819902788437</v>
+        <v>0</v>
       </c>
       <c r="G272">
-        <v>0.002558199027884369</v>
+        <v>0.001790739319519059</v>
       </c>
       <c r="H272">
-        <v>0.000255819902788437</v>
+        <v>0</v>
       </c>
       <c r="I272">
-        <v>0.000255819902788437</v>
+        <v>0</v>
       </c>
       <c r="J272">
         <v>0</v>
@@ -12434,16 +12440,16 @@
         <v>0.001022233580373115</v>
       </c>
       <c r="F273">
-        <v>0.0001277791975466394</v>
+        <v>0</v>
       </c>
       <c r="G273">
-        <v>0.001277791975466394</v>
+        <v>0.001150012777919755</v>
       </c>
       <c r="H273">
-        <v>0.0008944543828264759</v>
+        <v>0.0007666751852798365</v>
       </c>
       <c r="I273">
-        <v>0.0007666751852798365</v>
+        <v>0.000638895987733197</v>
       </c>
       <c r="J273">
         <v>0.0002555583950932788</v>
@@ -12487,7 +12493,7 @@
         <v>0.003067484662576687</v>
       </c>
       <c r="I274">
-        <v>0.0006816632583503749</v>
+        <v>0.0003408316291751875</v>
       </c>
       <c r="J274">
         <v>0.0006816632583503749</v>
@@ -12516,7 +12522,7 @@
         <v>0.0002410219329959026</v>
       </c>
       <c r="D275">
-        <v>0.0004820438659918053</v>
+        <v>0</v>
       </c>
       <c r="E275">
         <v>0.0002410219329959026</v>
@@ -12525,13 +12531,13 @@
         <v>0</v>
       </c>
       <c r="G275">
-        <v>0.001446131597975416</v>
+        <v>0.0009640877319836105</v>
       </c>
       <c r="H275">
-        <v>0.002651241262954929</v>
+        <v>0.002410219329959026</v>
       </c>
       <c r="I275">
-        <v>0.002651241262954929</v>
+        <v>0.0007230657989877079</v>
       </c>
       <c r="J275">
         <v>0</v>
@@ -12554,40 +12560,40 @@
         <v>20</v>
       </c>
       <c r="B276">
-        <v>0.02868701728576683</v>
+        <v>0.02869757174392936</v>
       </c>
       <c r="C276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="D276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="E276">
-        <v>0.000735564545788893</v>
+        <v>0.0007358351729212656</v>
       </c>
       <c r="F276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="G276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="H276">
-        <v>0.001838911364472232</v>
+        <v>0.001839587932303164</v>
       </c>
       <c r="I276">
-        <v>0.001838911364472232</v>
+        <v>0.001471670345842531</v>
       </c>
       <c r="J276">
         <v>0</v>
       </c>
       <c r="K276">
-        <v>0.000735564545788893</v>
+        <v>0.0007358351729212656</v>
       </c>
       <c r="L276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="M276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="N276">
         <v>2008</v>
@@ -12616,13 +12622,13 @@
         <v>0.0009136592051164915</v>
       </c>
       <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
         <v>0.0002284148012791229</v>
       </c>
-      <c r="I277">
-        <v>0.0006852444038373687</v>
-      </c>
       <c r="J277">
-        <v>0.0006852444038373687</v>
+        <v>0.0004568296025582458</v>
       </c>
       <c r="K277">
         <v>0.001142074006395614</v>
@@ -12657,13 +12663,13 @@
         <v>0</v>
       </c>
       <c r="G278">
-        <v>0.0004687133817670494</v>
+        <v>0.0002343566908835247</v>
       </c>
       <c r="H278">
         <v>0.0004687133817670494</v>
       </c>
       <c r="I278">
-        <v>0.0004687133817670494</v>
+        <v>0.0002343566908835247</v>
       </c>
       <c r="J278">
         <v>0</v>
@@ -12698,16 +12704,16 @@
         <v>0.001241850357031978</v>
       </c>
       <c r="F279">
-        <v>0.0009313877677739833</v>
+        <v>0</v>
       </c>
       <c r="G279">
         <v>0.0003104625892579944</v>
       </c>
       <c r="H279">
-        <v>0.0009313877677739833</v>
+        <v>0</v>
       </c>
       <c r="I279">
-        <v>0.0009313877677739833</v>
+        <v>0.0006209251785159888</v>
       </c>
       <c r="J279">
         <v>0.0003104625892579944</v>
@@ -12742,7 +12748,7 @@
         <v>0.0005808887598024978</v>
       </c>
       <c r="F280">
-        <v>0.001161777519604996</v>
+        <v>0</v>
       </c>
       <c r="G280">
         <v>0.0002904443799012489</v>
@@ -12751,7 +12757,7 @@
         <v>0.0008713331397037467</v>
       </c>
       <c r="I280">
-        <v>0.0008713331397037467</v>
+        <v>0</v>
       </c>
       <c r="J280">
         <v>0.0002904443799012489</v>
@@ -12786,7 +12792,7 @@
         <v>0.001283697047496791</v>
       </c>
       <c r="F281">
-        <v>0.001283697047496791</v>
+        <v>0.0006418485237483953</v>
       </c>
       <c r="G281">
         <v>0.001283697047496791</v>
@@ -12830,16 +12836,16 @@
         <v>0.005247813411078718</v>
       </c>
       <c r="F282">
+        <v>0.0005830903790087463</v>
+      </c>
+      <c r="G282">
         <v>0.001166180758017493</v>
       </c>
-      <c r="G282">
-        <v>0.001749271137026239</v>
-      </c>
       <c r="H282">
-        <v>0.003498542274052478</v>
+        <v>0.002915451895043732</v>
       </c>
       <c r="I282">
-        <v>0.001166180758017493</v>
+        <v>0</v>
       </c>
       <c r="J282">
         <v>0</v>
@@ -12874,13 +12880,13 @@
         <v>0.003253090435914118</v>
       </c>
       <c r="F283">
-        <v>0.002602472348731295</v>
+        <v>0.001951854261548471</v>
       </c>
       <c r="G283">
         <v>0</v>
       </c>
       <c r="H283">
-        <v>0.004554326610279766</v>
+        <v>0.003903708523096942</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -12912,13 +12918,13 @@
         <v>0.002010050251256282</v>
       </c>
       <c r="D284">
-        <v>0.0005025125628140704</v>
+        <v>0</v>
       </c>
       <c r="E284">
         <v>0.001507537688442211</v>
       </c>
       <c r="F284">
-        <v>0.001507537688442211</v>
+        <v>0</v>
       </c>
       <c r="G284">
         <v>0.0005025125628140704</v>
@@ -12962,19 +12968,19 @@
         <v>0.002915451895043732</v>
       </c>
       <c r="F285">
-        <v>0.002498958767180342</v>
+        <v>0</v>
       </c>
       <c r="G285">
         <v>0.0004164931278633903</v>
       </c>
       <c r="H285">
-        <v>0.002915451895043732</v>
+        <v>0.002498958767180342</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
       <c r="J285">
-        <v>0.0008329862557267805</v>
+        <v>0.0004164931278633903</v>
       </c>
       <c r="K285">
         <v>0.002498958767180342</v>
@@ -13000,22 +13006,22 @@
         <v>0.0007369196757553427</v>
       </c>
       <c r="D286">
-        <v>0.001105379513633014</v>
+        <v>0.0007369196757553427</v>
       </c>
       <c r="E286">
         <v>0.003684598378776713</v>
       </c>
       <c r="F286">
-        <v>0.002210759027266028</v>
+        <v>0</v>
       </c>
       <c r="G286">
-        <v>0.001105379513633014</v>
+        <v>0</v>
       </c>
       <c r="H286">
-        <v>0.006632277081798084</v>
+        <v>0.006263817243920413</v>
       </c>
       <c r="I286">
-        <v>0.003684598378776713</v>
+        <v>0.002579218865143699</v>
       </c>
       <c r="J286">
         <v>0.0003684598378776713</v>
@@ -13050,7 +13056,7 @@
         <v>0.002966381015161503</v>
       </c>
       <c r="F287">
-        <v>0.001647989452867502</v>
+        <v>0</v>
       </c>
       <c r="G287">
         <v>0.0003295978905735003</v>
@@ -13094,13 +13100,13 @@
         <v>0.003319808188860199</v>
       </c>
       <c r="F288">
-        <v>0.001844337882700111</v>
+        <v>0</v>
       </c>
       <c r="G288">
         <v>0.001106602729620066</v>
       </c>
       <c r="H288">
-        <v>0.0003688675765400221</v>
+        <v>0</v>
       </c>
       <c r="I288">
         <v>0.001106602729620066</v>
@@ -14144,7 +14150,7 @@
         <v>0.0004125412541254125</v>
       </c>
       <c r="D312">
-        <v>0.0004125412541254125</v>
+        <v>0</v>
       </c>
       <c r="E312">
         <v>0.0008250825082508251</v>
@@ -14241,16 +14247,16 @@
         <v>0</v>
       </c>
       <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0.0004436557231588288</v>
+      </c>
+      <c r="J314">
         <v>0.0002218278615794144</v>
-      </c>
-      <c r="H314">
-        <v>0</v>
-      </c>
-      <c r="I314">
-        <v>0.001109139307897072</v>
-      </c>
-      <c r="J314">
-        <v>0.0006654835847382431</v>
       </c>
       <c r="K314">
         <v>0</v>
@@ -14329,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="G316">
-        <v>0.001298701298701299</v>
+        <v>0.000974025974025974</v>
       </c>
       <c r="H316">
         <v>0.0003246753246753247</v>
@@ -14364,7 +14370,7 @@
         <v>0.001060820367751061</v>
       </c>
       <c r="D317">
-        <v>0.0003536067892503536</v>
+        <v>0</v>
       </c>
       <c r="E317">
         <v>0.001414427157001414</v>
@@ -14373,13 +14379,13 @@
         <v>0</v>
       </c>
       <c r="G317">
-        <v>0.001414427157001414</v>
+        <v>0.001060820367751061</v>
       </c>
       <c r="H317">
         <v>0.0003536067892503536</v>
       </c>
       <c r="I317">
-        <v>0.0007072135785007072</v>
+        <v>0.0003536067892503536</v>
       </c>
       <c r="J317">
         <v>0</v>
@@ -14426,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="J318">
-        <v>0.001181334908446545</v>
+        <v>0</v>
       </c>
       <c r="K318">
         <v>0</v>
@@ -14470,7 +14476,7 @@
         <v>0.0005068423720223011</v>
       </c>
       <c r="J319">
-        <v>0.0005068423720223011</v>
+        <v>0</v>
       </c>
       <c r="K319">
         <v>0.0005068423720223011</v>
@@ -14549,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="G321">
-        <v>0.003410059676044331</v>
+        <v>0.002557544757033248</v>
       </c>
       <c r="H321">
         <v>0.001705029838022165</v>
@@ -14822,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="J327">
-        <v>0.002002002002002002</v>
+        <v>0.001001001001001001</v>
       </c>
       <c r="K327">
         <v>0</v>
@@ -14857,7 +14863,7 @@
         <v>0</v>
       </c>
       <c r="G328">
-        <v>0.0007178750897343862</v>
+        <v>0</v>
       </c>
       <c r="H328">
         <v>0.0007178750897343862</v>
@@ -14936,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="D330">
-        <v>0.0006784260515603799</v>
+        <v>0.0003392130257801899</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -14945,16 +14951,16 @@
         <v>0</v>
       </c>
       <c r="G330">
-        <v>0.0006784260515603799</v>
+        <v>0.0003392130257801899</v>
       </c>
       <c r="H330">
         <v>0.00203527815468114</v>
       </c>
       <c r="I330">
-        <v>0.00305291723202171</v>
+        <v>0.00101763907734057</v>
       </c>
       <c r="J330">
-        <v>0.0003392130257801899</v>
+        <v>0</v>
       </c>
       <c r="K330">
         <v>0.00169606512890095</v>
@@ -14980,13 +14986,13 @@
         <v>0.0004101722723543889</v>
       </c>
       <c r="D331">
-        <v>0.0004101722723543889</v>
+        <v>0</v>
       </c>
       <c r="E331">
         <v>0.0004101722723543889</v>
       </c>
       <c r="F331">
-        <v>0.0004101722723543889</v>
+        <v>0</v>
       </c>
       <c r="G331">
         <v>0</v>
@@ -14995,7 +15001,7 @@
         <v>0.002461033634126333</v>
       </c>
       <c r="I331">
-        <v>0.002871205906480722</v>
+        <v>0.0004101722723543889</v>
       </c>
       <c r="J331">
         <v>0</v>
@@ -15039,7 +15045,7 @@
         <v>0.001721911321566939</v>
       </c>
       <c r="I332">
-        <v>0.003013344812742144</v>
+        <v>0.001291433491175204</v>
       </c>
       <c r="J332">
         <v>0</v>
@@ -15068,13 +15074,13 @@
         <v>0.001195219123505976</v>
       </c>
       <c r="D333">
-        <v>0.000398406374501992</v>
+        <v>0</v>
       </c>
       <c r="E333">
         <v>0.002390438247011952</v>
       </c>
       <c r="F333">
-        <v>0.0007968127490039841</v>
+        <v>0</v>
       </c>
       <c r="G333">
         <v>0.001195219123505976</v>
@@ -15083,13 +15089,13 @@
         <v>0.0007968127490039841</v>
       </c>
       <c r="I333">
-        <v>0.001593625498007968</v>
+        <v>0.001195219123505976</v>
       </c>
       <c r="J333">
         <v>0</v>
       </c>
       <c r="K333">
-        <v>0.0007968127490039841</v>
+        <v>0.000398406374501992</v>
       </c>
       <c r="L333">
         <v>0</v>
@@ -15127,7 +15133,7 @@
         <v>0.00293470286133529</v>
       </c>
       <c r="I334">
-        <v>0.002201027146001467</v>
+        <v>0.001467351430667645</v>
       </c>
       <c r="J334">
         <v>0</v>
@@ -15156,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="D335">
-        <v>0.001322751322751323</v>
+        <v>0</v>
       </c>
       <c r="E335">
         <v>0.001322751322751323</v>
@@ -15171,7 +15177,7 @@
         <v>0.0008818342151675485</v>
       </c>
       <c r="I335">
-        <v>0.002204585537918871</v>
+        <v>0.001322751322751323</v>
       </c>
       <c r="J335">
         <v>0</v>
@@ -15206,7 +15212,7 @@
         <v>0.001025641025641026</v>
       </c>
       <c r="F336">
-        <v>0.0005128205128205128</v>
+        <v>0</v>
       </c>
       <c r="G336">
         <v>0.001025641025641026</v>
@@ -15215,7 +15221,7 @@
         <v>0</v>
       </c>
       <c r="I336">
-        <v>0.0005128205128205128</v>
+        <v>0</v>
       </c>
       <c r="J336">
         <v>0.001025641025641026</v>
@@ -15259,7 +15265,7 @@
         <v>0.0007739938080495357</v>
       </c>
       <c r="I337">
-        <v>0.001289989680082559</v>
+        <v>0.0007739938080495357</v>
       </c>
       <c r="J337">
         <v>0</v>
@@ -15288,7 +15294,7 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>0.0007137758743754461</v>
+        <v>0</v>
       </c>
       <c r="E338">
         <v>0.001070663811563169</v>
@@ -15300,13 +15306,13 @@
         <v>0.001427551748750892</v>
       </c>
       <c r="H338">
-        <v>0.001070663811563169</v>
+        <v>0.0003568879371877231</v>
       </c>
       <c r="I338">
         <v>0.0003568879371877231</v>
       </c>
       <c r="J338">
-        <v>0.0003568879371877231</v>
+        <v>0</v>
       </c>
       <c r="K338">
         <v>0.0007137758743754461</v>
@@ -15332,22 +15338,22 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>0.0008957897879964168</v>
+        <v>0.0002985965959988056</v>
       </c>
       <c r="E339">
         <v>0.0008957897879964168</v>
       </c>
       <c r="F339">
-        <v>0.0005971931919976113</v>
+        <v>0.0002985965959988056</v>
       </c>
       <c r="G339">
-        <v>0.002090176171991639</v>
+        <v>0.001791579575992834</v>
       </c>
       <c r="H339">
-        <v>0.0005971931919976113</v>
+        <v>0.0002985965959988056</v>
       </c>
       <c r="I339">
-        <v>0.0005971931919976113</v>
+        <v>0</v>
       </c>
       <c r="J339">
         <v>0</v>
@@ -15376,7 +15382,7 @@
         <v>0.0003198976327575176</v>
       </c>
       <c r="D340">
-        <v>0.0009596928982725527</v>
+        <v>0.0003198976327575176</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -15385,13 +15391,13 @@
         <v>0</v>
       </c>
       <c r="G340">
-        <v>0.001919385796545105</v>
+        <v>0.00127959053103007</v>
       </c>
       <c r="H340">
         <v>0.0009596928982725527</v>
       </c>
       <c r="I340">
-        <v>0.00127959053103007</v>
+        <v>0.0003198976327575176</v>
       </c>
       <c r="J340">
         <v>0.0003198976327575176</v>
@@ -15432,7 +15438,7 @@
         <v>0.00078064012490242</v>
       </c>
       <c r="H341">
-        <v>0.00078064012490242</v>
+        <v>0.00039032006245121</v>
       </c>
       <c r="I341">
         <v>0.00156128024980484</v>
@@ -15470,16 +15476,16 @@
         <v>0</v>
       </c>
       <c r="F342">
-        <v>0.0003408316291751875</v>
+        <v>0</v>
       </c>
       <c r="G342">
-        <v>0.002044989775051125</v>
+        <v>0.001704158145875937</v>
       </c>
       <c r="H342">
         <v>0.001022494887525562</v>
       </c>
       <c r="I342">
-        <v>0.00136332651670075</v>
+        <v>0.001022494887525562</v>
       </c>
       <c r="J342">
         <v>0</v>
@@ -15508,7 +15514,7 @@
         <v>0.0005060728744939271</v>
       </c>
       <c r="D343">
-        <v>0.001012145748987854</v>
+        <v>0.0005060728744939271</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -15520,10 +15526,10 @@
         <v>0.0005060728744939271</v>
       </c>
       <c r="H343">
-        <v>0.002024291497975709</v>
+        <v>0.001518218623481781</v>
       </c>
       <c r="I343">
-        <v>0.001012145748987854</v>
+        <v>0.0005060728744939271</v>
       </c>
       <c r="J343">
         <v>0</v>
@@ -15552,7 +15558,7 @@
         <v>0.0005277044854881266</v>
       </c>
       <c r="D344">
-        <v>0.001055408970976253</v>
+        <v>0.0005277044854881266</v>
       </c>
       <c r="E344">
         <v>0.0005277044854881266</v>
@@ -15561,13 +15567,13 @@
         <v>0</v>
       </c>
       <c r="G344">
-        <v>0.003693931398416886</v>
+        <v>0.002638522427440633</v>
       </c>
       <c r="H344">
-        <v>0.0005277044854881266</v>
+        <v>0</v>
       </c>
       <c r="I344">
-        <v>0.0005277044854881266</v>
+        <v>0</v>
       </c>
       <c r="J344">
         <v>0.0005277044854881266</v>
@@ -15602,7 +15608,7 @@
         <v>0.0005455537370430987</v>
       </c>
       <c r="F345">
-        <v>0.0005455537370430987</v>
+        <v>0</v>
       </c>
       <c r="G345">
         <v>0.002727768685215494</v>
@@ -15649,13 +15655,13 @@
         <v>0</v>
       </c>
       <c r="G346">
-        <v>0.002766676913618198</v>
+        <v>0.002151859821703043</v>
       </c>
       <c r="H346">
         <v>0.001537042729787888</v>
       </c>
       <c r="I346">
-        <v>0.0009222256378727329</v>
+        <v>0.0006148170919151552</v>
       </c>
       <c r="J346">
         <v>0.0003074085459575776</v>
@@ -15690,16 +15696,16 @@
         <v>0</v>
       </c>
       <c r="F347">
-        <v>0.001954079140205178</v>
+        <v>0.0004885197850512946</v>
       </c>
       <c r="G347">
-        <v>0.002442598925256473</v>
+        <v>0.0009770395701025891</v>
       </c>
       <c r="H347">
         <v>0.001465559355153884</v>
       </c>
       <c r="I347">
-        <v>0.001465559355153884</v>
+        <v>0.0004885197850512946</v>
       </c>
       <c r="J347">
         <v>0</v>
@@ -15734,16 +15740,16 @@
         <v>0.0006731740154830024</v>
       </c>
       <c r="F348">
-        <v>0.001009761023224504</v>
+        <v>0</v>
       </c>
       <c r="G348">
-        <v>0.002356109054190508</v>
+        <v>0.0006731740154830024</v>
       </c>
       <c r="H348">
         <v>0.0006731740154830024</v>
       </c>
       <c r="I348">
-        <v>0.0003365870077415012</v>
+        <v>0</v>
       </c>
       <c r="J348">
         <v>0</v>
@@ -15781,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="G349">
-        <v>0.002518891687657431</v>
+        <v>0.001679261125104954</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -15793,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="K349">
-        <v>0.0008396305625524769</v>
+        <v>0.0004198152812762384</v>
       </c>
       <c r="L349">
         <v>0.0004198152812762384</v>
@@ -15822,16 +15828,16 @@
         <v>0.000878348704435661</v>
       </c>
       <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0.002635046113306983</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
         <v>0.0004391743522178305</v>
-      </c>
-      <c r="G350">
-        <v>0.003074220465524813</v>
-      </c>
-      <c r="H350">
-        <v>0</v>
-      </c>
-      <c r="I350">
-        <v>0.000878348704435661</v>
       </c>
       <c r="J350">
         <v>0</v>
@@ -15875,7 +15881,7 @@
         <v>0.0009354536950420954</v>
       </c>
       <c r="I351">
-        <v>0.001403180542563143</v>
+        <v>0.0009354536950420954</v>
       </c>
       <c r="J351">
         <v>0.0004677268475210477</v>
@@ -15910,7 +15916,7 @@
         <v>0.0009389671361502347</v>
       </c>
       <c r="F352">
-        <v>0.0004694835680751174</v>
+        <v>0</v>
       </c>
       <c r="G352">
         <v>0.001877934272300469</v>
@@ -15948,19 +15954,19 @@
         <v>0.000477326968973747</v>
       </c>
       <c r="D353">
-        <v>0.000477326968973747</v>
+        <v>0</v>
       </c>
       <c r="E353">
         <v>0.0009546539379474941</v>
       </c>
       <c r="F353">
-        <v>0.000477326968973747</v>
+        <v>0</v>
       </c>
       <c r="G353">
         <v>0.003341288782816229</v>
       </c>
       <c r="H353">
-        <v>0.001431980906921241</v>
+        <v>0.0009546539379474941</v>
       </c>
       <c r="I353">
         <v>0.0009546539379474941</v>
@@ -15992,7 +15998,7 @@
         <v>0.0008223684210526315</v>
       </c>
       <c r="D354">
-        <v>0.0004111842105263158</v>
+        <v>0</v>
       </c>
       <c r="E354">
         <v>0.0004111842105263158</v>
@@ -16007,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="I354">
-        <v>0.0004111842105263158</v>
+        <v>0</v>
       </c>
       <c r="J354">
         <v>0.0008223684210526315</v>
@@ -16036,7 +16042,7 @@
         <v>0.0006973500697350069</v>
       </c>
       <c r="D355">
-        <v>0.001394700139470014</v>
+        <v>0.0006973500697350069</v>
       </c>
       <c r="E355">
         <v>0.00104602510460251</v>
@@ -16048,13 +16054,13 @@
         <v>0.003835425383542538</v>
       </c>
       <c r="H355">
-        <v>0.00104602510460251</v>
+        <v>0.0003486750348675035</v>
       </c>
       <c r="I355">
         <v>0.0003486750348675035</v>
       </c>
       <c r="J355">
-        <v>0.002440725244072524</v>
+        <v>0.001394700139470014</v>
       </c>
       <c r="K355">
         <v>0.0003486750348675035</v>
@@ -16080,7 +16086,7 @@
         <v>0.0005717552887364208</v>
       </c>
       <c r="D356">
-        <v>0.0008576329331046312</v>
+        <v>0.0005717552887364208</v>
       </c>
       <c r="E356">
         <v>0.0005717552887364208</v>
@@ -16089,13 +16095,13 @@
         <v>0</v>
       </c>
       <c r="G356">
-        <v>0.002572898799313894</v>
+        <v>0.002001143510577473</v>
       </c>
       <c r="H356">
         <v>0.0002858776443682104</v>
       </c>
       <c r="I356">
-        <v>0.001429388221841052</v>
+        <v>0.0002858776443682104</v>
       </c>
       <c r="J356">
         <v>0.0002858776443682104</v>
@@ -16133,10 +16139,10 @@
         <v>0</v>
       </c>
       <c r="G357">
-        <v>0.002588996763754045</v>
+        <v>0.001618122977346278</v>
       </c>
       <c r="H357">
-        <v>0.0009708737864077669</v>
+        <v>0.0003236245954692557</v>
       </c>
       <c r="I357">
         <v>0.0003236245954692557</v>
@@ -16168,22 +16174,22 @@
         <v>0.000835421888053467</v>
       </c>
       <c r="D358">
-        <v>0.0012531328320802</v>
+        <v>0.0006265664160401002</v>
       </c>
       <c r="E358">
         <v>0.0006265664160401002</v>
       </c>
       <c r="F358">
-        <v>0.000835421888053467</v>
+        <v>0.0006265664160401002</v>
       </c>
       <c r="G358">
-        <v>0.001879699248120301</v>
+        <v>0.001670843776106934</v>
       </c>
       <c r="H358">
-        <v>0.001670843776106934</v>
+        <v>0.0012531328320802</v>
       </c>
       <c r="I358">
-        <v>0.0006265664160401002</v>
+        <v>0.0002088554720133667</v>
       </c>
       <c r="J358">
         <v>0.0004177109440267335</v>
@@ -16218,16 +16224,16 @@
         <v>0.0003303600925008259</v>
       </c>
       <c r="F359">
-        <v>0.0006607201850016518</v>
+        <v>0.0003303600925008259</v>
       </c>
       <c r="G359">
-        <v>0.002312520647505781</v>
+        <v>0.001982160555004955</v>
       </c>
       <c r="H359">
-        <v>0.00165180046250413</v>
+        <v>0.001321440370003304</v>
       </c>
       <c r="I359">
-        <v>0.0006607201850016518</v>
+        <v>0</v>
       </c>
       <c r="J359">
         <v>0.0009910802775024777</v>
@@ -16265,13 +16271,13 @@
         <v>0.0003146633102580239</v>
       </c>
       <c r="G360">
-        <v>0.002517306482064191</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="H360">
         <v>0.0009439899307740718</v>
       </c>
       <c r="I360">
-        <v>0.001258653241032096</v>
+        <v>0.0006293266205160479</v>
       </c>
       <c r="J360">
         <v>0</v>
@@ -16300,7 +16306,7 @@
         <v>0.0009409550693954364</v>
       </c>
       <c r="D361">
-        <v>0.0004704775346977182</v>
+        <v>0.0002352387673488591</v>
       </c>
       <c r="E361">
         <v>0.0009409550693954364</v>
@@ -16312,13 +16318,13 @@
         <v>0.001176193836744295</v>
       </c>
       <c r="H361">
-        <v>0.001881910138790873</v>
+        <v>0.001646671371442014</v>
       </c>
       <c r="I361">
         <v>0.0004704775346977182</v>
       </c>
       <c r="J361">
-        <v>0.001176193836744295</v>
+        <v>0.0007057163020465773</v>
       </c>
       <c r="K361">
         <v>0.0004704775346977182</v>
@@ -16350,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="F362">
-        <v>0.001334400854016547</v>
+        <v>0.001067520683213237</v>
       </c>
       <c r="G362">
         <v>0.002668801708033093</v>
@@ -16388,7 +16394,7 @@
         <v>0.001111934766493699</v>
       </c>
       <c r="D363">
-        <v>0.001111934766493699</v>
+        <v>0.0005559673832468495</v>
       </c>
       <c r="E363">
         <v>0.0009266123054114158</v>
@@ -16400,13 +16406,13 @@
         <v>0.001297257227575982</v>
       </c>
       <c r="H363">
-        <v>0.001667902149740548</v>
+        <v>0.001297257227575982</v>
       </c>
       <c r="I363">
         <v>0.0001853224610822832</v>
       </c>
       <c r="J363">
-        <v>0.001111934766493699</v>
+        <v>0.0009266123054114158</v>
       </c>
       <c r="K363">
         <v>0.0007412898443291327</v>
@@ -16432,19 +16438,19 @@
         <v>0.002108036890645586</v>
       </c>
       <c r="D364">
-        <v>0.00158102766798419</v>
+        <v>0.0005270092226613965</v>
       </c>
       <c r="E364">
-        <v>0.0007905138339920949</v>
+        <v>0.0005270092226613965</v>
       </c>
       <c r="F364">
-        <v>0.001317523056653491</v>
+        <v>0.001054018445322793</v>
       </c>
       <c r="G364">
         <v>0.0007905138339920949</v>
       </c>
       <c r="H364">
-        <v>0.0007905138339920949</v>
+        <v>0.0005270092226613965</v>
       </c>
       <c r="I364">
         <v>0.0005270092226613965</v>
@@ -16476,25 +16482,25 @@
         <v>0.001524722282727075</v>
       </c>
       <c r="D365">
-        <v>0.0002178174689610107</v>
+        <v>0</v>
       </c>
       <c r="E365">
         <v>0.002831627096493139</v>
       </c>
       <c r="F365">
-        <v>0.0004356349379220214</v>
+        <v>0.0002178174689610107</v>
       </c>
       <c r="G365">
-        <v>0.002613809627532128</v>
+        <v>0.001960357220649096</v>
       </c>
       <c r="H365">
         <v>0.0008712698758440427</v>
       </c>
       <c r="I365">
-        <v>0.0002178174689610107</v>
+        <v>0</v>
       </c>
       <c r="J365">
-        <v>0.001306904813766064</v>
+        <v>0.001089087344805053</v>
       </c>
       <c r="K365">
         <v>0.0008712698758440427</v>
@@ -16520,7 +16526,7 @@
         <v>0.0008212428141253764</v>
       </c>
       <c r="D366">
-        <v>0.0005474952094169176</v>
+        <v>0.0002737476047084588</v>
       </c>
       <c r="E366">
         <v>0.00218998083766767</v>
@@ -16532,10 +16538,10 @@
         <v>0.001368738023542294</v>
       </c>
       <c r="H366">
+        <v>0.0005474952094169176</v>
+      </c>
+      <c r="I366">
         <v>0.0008212428141253764</v>
-      </c>
-      <c r="I366">
-        <v>0.001368738023542294</v>
       </c>
       <c r="J366">
         <v>0.0008212428141253764</v>
@@ -16573,7 +16579,7 @@
         <v>0.000555247084952804</v>
       </c>
       <c r="G367">
-        <v>0.001665741254858412</v>
+        <v>0.001110494169905608</v>
       </c>
       <c r="H367">
         <v>0.000555247084952804</v>
@@ -16585,7 +16591,7 @@
         <v>0.000555247084952804</v>
       </c>
       <c r="K367">
-        <v>0.000555247084952804</v>
+        <v>0.000277623542476402</v>
       </c>
       <c r="L367">
         <v>0</v>
@@ -16611,19 +16617,19 @@
         <v>0.0002907822041291073</v>
       </c>
       <c r="E368">
-        <v>0.001744693224774644</v>
+        <v>0.001453911020645537</v>
       </c>
       <c r="F368">
-        <v>0.0002907822041291073</v>
+        <v>0</v>
       </c>
       <c r="G368">
-        <v>0.001453911020645537</v>
+        <v>0.0005815644082582146</v>
       </c>
       <c r="H368">
         <v>0.001744693224774644</v>
       </c>
       <c r="I368">
-        <v>0.001163128816516429</v>
+        <v>0.0005815644082582146</v>
       </c>
       <c r="J368">
         <v>0.0005815644082582146</v>
@@ -16652,28 +16658,28 @@
         <v>0.001772151898734177</v>
       </c>
       <c r="D369">
-        <v>0.001012658227848101</v>
+        <v>0.0007594936708860759</v>
       </c>
       <c r="E369">
         <v>0.001012658227848101</v>
       </c>
       <c r="F369">
-        <v>0.001518987341772152</v>
+        <v>0.0005063291139240507</v>
       </c>
       <c r="G369">
+        <v>0.001012658227848101</v>
+      </c>
+      <c r="H369">
         <v>0.001772151898734177</v>
       </c>
-      <c r="H369">
-        <v>0.002025316455696203</v>
-      </c>
       <c r="I369">
-        <v>0.001012658227848101</v>
+        <v>0.0005063291139240507</v>
       </c>
       <c r="J369">
         <v>0.001012658227848101</v>
       </c>
       <c r="K369">
-        <v>0.001012658227848101</v>
+        <v>0.0007594936708860759</v>
       </c>
       <c r="L369">
         <v>0</v>
@@ -16702,7 +16708,7 @@
         <v>0.001710132535271483</v>
       </c>
       <c r="F370">
-        <v>0.0008550662676357417</v>
+        <v>0.0004275331338178709</v>
       </c>
       <c r="G370">
         <v>0.0008550662676357417</v>
@@ -16711,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="I370">
-        <v>0.002565198802907225</v>
+        <v>0.001282599401453613</v>
       </c>
       <c r="J370">
         <v>0.0008550662676357417</v>
@@ -16746,7 +16752,7 @@
         <v>0.001325088339222615</v>
       </c>
       <c r="F371">
-        <v>0.0004416961130742049</v>
+        <v>0</v>
       </c>
       <c r="G371">
         <v>0.002208480565371025</v>
@@ -16755,10 +16761,10 @@
         <v>0</v>
       </c>
       <c r="I371">
-        <v>0.001325088339222615</v>
+        <v>0.0004416961130742049</v>
       </c>
       <c r="J371">
-        <v>0.0004416961130742049</v>
+        <v>0</v>
       </c>
       <c r="K371">
         <v>0</v>
@@ -16916,7 +16922,7 @@
         <v>0.0005489980785067252</v>
       </c>
       <c r="D375">
-        <v>0.0005489980785067252</v>
+        <v>0</v>
       </c>
       <c r="E375">
         <v>0.001646994235520176</v>
@@ -16931,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="I375">
-        <v>0.002195992314026901</v>
+        <v>0.001646994235520176</v>
       </c>
       <c r="J375">
         <v>0.0002744990392533626</v>
@@ -16954,28 +16960,28 @@
         <v>23</v>
       </c>
       <c r="B376">
-        <v>0.007646559048428207</v>
+        <v>0.00764872521246459</v>
       </c>
       <c r="C376">
-        <v>0.0002832058906825262</v>
+        <v>0.00028328611898017</v>
       </c>
       <c r="D376">
         <v>0</v>
       </c>
       <c r="E376">
-        <v>0.0008496176720475786</v>
+        <v>0.0008498583569405099</v>
       </c>
       <c r="F376">
         <v>0</v>
       </c>
       <c r="G376">
-        <v>0.0005664117813650524</v>
+        <v>0.0005665722379603399</v>
       </c>
       <c r="H376">
         <v>0</v>
       </c>
       <c r="I376">
-        <v>0.0002832058906825262</v>
+        <v>0.00028328611898017</v>
       </c>
       <c r="J376">
         <v>0</v>
@@ -17013,16 +17019,16 @@
         <v>0</v>
       </c>
       <c r="G377">
-        <v>0.001038961038961039</v>
+        <v>0.0007792207792207792</v>
       </c>
       <c r="H377">
         <v>0</v>
       </c>
       <c r="I377">
-        <v>0.001038961038961039</v>
+        <v>0.0005194805194805195</v>
       </c>
       <c r="J377">
-        <v>0.0002597402597402597</v>
+        <v>0</v>
       </c>
       <c r="K377">
         <v>0</v>
@@ -17057,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="G378">
-        <v>0.001278538812785388</v>
+        <v>0.0009132420091324201</v>
       </c>
       <c r="H378">
         <v>0.000182648401826484</v>
@@ -17066,10 +17072,10 @@
         <v>0.000182648401826484</v>
       </c>
       <c r="J378">
-        <v>0.000365296803652968</v>
+        <v>0.000182648401826484</v>
       </c>
       <c r="K378">
-        <v>0.000182648401826484</v>
+        <v>0</v>
       </c>
       <c r="L378">
         <v>0</v>
@@ -17101,13 +17107,13 @@
         <v>0</v>
       </c>
       <c r="G379">
-        <v>0.0005957108816521049</v>
+        <v>0.0003971405877680699</v>
       </c>
       <c r="H379">
         <v>0</v>
       </c>
       <c r="I379">
-        <v>0.0005957108816521049</v>
+        <v>0.0003971405877680699</v>
       </c>
       <c r="J379">
         <v>0</v>
@@ -17136,7 +17142,7 @@
         <v>0.0001622586402725945</v>
       </c>
       <c r="D380">
-        <v>0.0001622586402725945</v>
+        <v>0</v>
       </c>
       <c r="E380">
         <v>0.0008112932013629726</v>
@@ -17145,16 +17151,16 @@
         <v>0</v>
       </c>
       <c r="G380">
-        <v>0.0001622586402725945</v>
+        <v>0</v>
       </c>
       <c r="H380">
-        <v>0.0001622586402725945</v>
+        <v>0</v>
       </c>
       <c r="I380">
         <v>0.0001622586402725945</v>
       </c>
       <c r="J380">
-        <v>0.0008112932013629726</v>
+        <v>0</v>
       </c>
       <c r="K380">
         <v>0.0001622586402725945</v>
@@ -17494,19 +17500,19 @@
         <v>0.001585791309863622</v>
       </c>
       <c r="F388">
-        <v>0.0001585791309863622</v>
+        <v>0</v>
       </c>
       <c r="G388">
-        <v>0.001110053916904535</v>
+        <v>0.0009514747859181732</v>
       </c>
       <c r="H388">
         <v>0.0004757373929590866</v>
       </c>
       <c r="I388">
-        <v>0.001110053916904535</v>
+        <v>0.0009514747859181732</v>
       </c>
       <c r="J388">
-        <v>0.0006343165239454488</v>
+        <v>0.0003171582619727244</v>
       </c>
       <c r="K388">
         <v>0.0001585791309863622</v>
@@ -17532,7 +17538,7 @@
         <v>0.0001362583458236817</v>
       </c>
       <c r="D389">
-        <v>0.0001362583458236817</v>
+        <v>0</v>
       </c>
       <c r="E389">
         <v>0.002043875187355226</v>
@@ -17541,13 +17547,13 @@
         <v>0</v>
       </c>
       <c r="G389">
-        <v>0.001498841804060499</v>
+        <v>0.001362583458236817</v>
       </c>
       <c r="H389">
-        <v>0.0001362583458236817</v>
+        <v>0</v>
       </c>
       <c r="I389">
-        <v>0.0008175500749420902</v>
+        <v>0.0005450333832947268</v>
       </c>
       <c r="J389">
         <v>0</v>
@@ -17576,7 +17582,7 @@
         <v>0.0002393489707994256</v>
       </c>
       <c r="D390">
-        <v>0.0003590234561991383</v>
+        <v>0.0002393489707994256</v>
       </c>
       <c r="E390">
         <v>0.001436093824796553</v>
@@ -17585,16 +17591,16 @@
         <v>0</v>
       </c>
       <c r="G390">
-        <v>0.001675442795595979</v>
+        <v>0.001436093824796553</v>
       </c>
       <c r="H390">
-        <v>0.0002393489707994256</v>
+        <v>0.0001196744853997128</v>
       </c>
       <c r="I390">
-        <v>0.0004786979415988511</v>
+        <v>0.0003590234561991383</v>
       </c>
       <c r="J390">
-        <v>0.0001196744853997128</v>
+        <v>0</v>
       </c>
       <c r="K390">
         <v>0.0001196744853997128</v>
@@ -17629,7 +17635,7 @@
         <v>0</v>
       </c>
       <c r="G391">
-        <v>0.00111358574610245</v>
+        <v>0.0002783964365256125</v>
       </c>
       <c r="H391">
         <v>0</v>
@@ -17673,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="G392">
-        <v>0.0006075334143377885</v>
+        <v>0.0004050222762251924</v>
       </c>
       <c r="H392">
         <v>0.0002025111381125962</v>
@@ -17855,7 +17861,7 @@
         <v>0</v>
       </c>
       <c r="I396">
-        <v>0.0009212344541685859</v>
+        <v>0.000460617227084293</v>
       </c>
       <c r="J396">
         <v>0</v>
@@ -17946,7 +17952,7 @@
         <v>0.001665278934221482</v>
       </c>
       <c r="J398">
-        <v>0.0008326394671107411</v>
+        <v>0.0004163197335553705</v>
       </c>
       <c r="K398">
         <v>0</v>
@@ -18016,7 +18022,7 @@
         <v>0.000158856235107228</v>
       </c>
       <c r="D400">
-        <v>0.000158856235107228</v>
+        <v>0</v>
       </c>
       <c r="E400">
         <v>0.001906274821286736</v>
@@ -18028,7 +18034,7 @@
         <v>0.001270849880857824</v>
       </c>
       <c r="H400">
-        <v>0.0009531374106433678</v>
+        <v>0.0007942811755361397</v>
       </c>
       <c r="I400">
         <v>0.0009531374106433678</v>
@@ -18069,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="G401">
-        <v>0.00231811697574893</v>
+        <v>0.001961483594864479</v>
       </c>
       <c r="H401">
         <v>0.000891583452211127</v>
@@ -18078,7 +18084,7 @@
         <v>0.000891583452211127</v>
       </c>
       <c r="J401">
-        <v>0.0001783166904422254</v>
+        <v>0</v>
       </c>
       <c r="K401">
         <v>0.0001783166904422254</v>
@@ -18157,13 +18163,13 @@
         <v>0</v>
       </c>
       <c r="G403">
-        <v>0.0008898116565327006</v>
+        <v>0.0007415097137772505</v>
       </c>
       <c r="H403">
         <v>0.0005932077710218003</v>
       </c>
       <c r="I403">
-        <v>0.0008898116565327006</v>
+        <v>0.0007415097137772505</v>
       </c>
       <c r="J403">
         <v>0</v>
@@ -18198,7 +18204,7 @@
         <v>0.0006971070059254096</v>
       </c>
       <c r="F404">
-        <v>0.0001742767514813524</v>
+        <v>0</v>
       </c>
       <c r="G404">
         <v>0.001219937260369467</v>
@@ -18207,7 +18213,7 @@
         <v>0.0006971070059254096</v>
       </c>
       <c r="I404">
-        <v>0.002962704775182991</v>
+        <v>0.002091321017776229</v>
       </c>
       <c r="J404">
         <v>0</v>
@@ -18236,7 +18242,7 @@
         <v>0.0002805836139169473</v>
       </c>
       <c r="D405">
-        <v>0.0002805836139169473</v>
+        <v>0</v>
       </c>
       <c r="E405">
         <v>0.0002805836139169473</v>
@@ -18248,7 +18254,7 @@
         <v>0.0005611672278338945</v>
       </c>
       <c r="H405">
-        <v>0.001683501683501683</v>
+        <v>0.001122334455667789</v>
       </c>
       <c r="I405">
         <v>0.001964085297418631</v>
@@ -18530,6 +18536,3614 @@
         <v>999</v>
       </c>
       <c r="N411">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14">
+      <c r="A412" t="s">
+        <v>24</v>
+      </c>
+      <c r="B412">
+        <v>999</v>
+      </c>
+      <c r="C412">
+        <v>999</v>
+      </c>
+      <c r="D412">
+        <v>999</v>
+      </c>
+      <c r="E412">
+        <v>999</v>
+      </c>
+      <c r="F412">
+        <v>999</v>
+      </c>
+      <c r="G412">
+        <v>999</v>
+      </c>
+      <c r="H412">
+        <v>999</v>
+      </c>
+      <c r="I412">
+        <v>999</v>
+      </c>
+      <c r="J412">
+        <v>999</v>
+      </c>
+      <c r="K412">
+        <v>999</v>
+      </c>
+      <c r="L412">
+        <v>999</v>
+      </c>
+      <c r="M412">
+        <v>999</v>
+      </c>
+      <c r="N412">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14">
+      <c r="A413" t="s">
+        <v>24</v>
+      </c>
+      <c r="B413">
+        <v>999</v>
+      </c>
+      <c r="C413">
+        <v>999</v>
+      </c>
+      <c r="D413">
+        <v>999</v>
+      </c>
+      <c r="E413">
+        <v>999</v>
+      </c>
+      <c r="F413">
+        <v>999</v>
+      </c>
+      <c r="G413">
+        <v>999</v>
+      </c>
+      <c r="H413">
+        <v>999</v>
+      </c>
+      <c r="I413">
+        <v>999</v>
+      </c>
+      <c r="J413">
+        <v>999</v>
+      </c>
+      <c r="K413">
+        <v>999</v>
+      </c>
+      <c r="L413">
+        <v>999</v>
+      </c>
+      <c r="M413">
+        <v>999</v>
+      </c>
+      <c r="N413">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14">
+      <c r="A414" t="s">
+        <v>24</v>
+      </c>
+      <c r="B414">
+        <v>999</v>
+      </c>
+      <c r="C414">
+        <v>999</v>
+      </c>
+      <c r="D414">
+        <v>999</v>
+      </c>
+      <c r="E414">
+        <v>999</v>
+      </c>
+      <c r="F414">
+        <v>999</v>
+      </c>
+      <c r="G414">
+        <v>999</v>
+      </c>
+      <c r="H414">
+        <v>999</v>
+      </c>
+      <c r="I414">
+        <v>999</v>
+      </c>
+      <c r="J414">
+        <v>999</v>
+      </c>
+      <c r="K414">
+        <v>999</v>
+      </c>
+      <c r="L414">
+        <v>999</v>
+      </c>
+      <c r="M414">
+        <v>999</v>
+      </c>
+      <c r="N414">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14">
+      <c r="A415" t="s">
+        <v>24</v>
+      </c>
+      <c r="B415">
+        <v>999</v>
+      </c>
+      <c r="C415">
+        <v>999</v>
+      </c>
+      <c r="D415">
+        <v>999</v>
+      </c>
+      <c r="E415">
+        <v>999</v>
+      </c>
+      <c r="F415">
+        <v>999</v>
+      </c>
+      <c r="G415">
+        <v>999</v>
+      </c>
+      <c r="H415">
+        <v>999</v>
+      </c>
+      <c r="I415">
+        <v>999</v>
+      </c>
+      <c r="J415">
+        <v>999</v>
+      </c>
+      <c r="K415">
+        <v>999</v>
+      </c>
+      <c r="L415">
+        <v>999</v>
+      </c>
+      <c r="M415">
+        <v>999</v>
+      </c>
+      <c r="N415">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14">
+      <c r="A416" t="s">
+        <v>24</v>
+      </c>
+      <c r="B416">
+        <v>999</v>
+      </c>
+      <c r="C416">
+        <v>999</v>
+      </c>
+      <c r="D416">
+        <v>999</v>
+      </c>
+      <c r="E416">
+        <v>999</v>
+      </c>
+      <c r="F416">
+        <v>999</v>
+      </c>
+      <c r="G416">
+        <v>999</v>
+      </c>
+      <c r="H416">
+        <v>999</v>
+      </c>
+      <c r="I416">
+        <v>999</v>
+      </c>
+      <c r="J416">
+        <v>999</v>
+      </c>
+      <c r="K416">
+        <v>999</v>
+      </c>
+      <c r="L416">
+        <v>999</v>
+      </c>
+      <c r="M416">
+        <v>999</v>
+      </c>
+      <c r="N416">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14">
+      <c r="A417" t="s">
+        <v>24</v>
+      </c>
+      <c r="B417">
+        <v>999</v>
+      </c>
+      <c r="C417">
+        <v>999</v>
+      </c>
+      <c r="D417">
+        <v>999</v>
+      </c>
+      <c r="E417">
+        <v>999</v>
+      </c>
+      <c r="F417">
+        <v>999</v>
+      </c>
+      <c r="G417">
+        <v>999</v>
+      </c>
+      <c r="H417">
+        <v>999</v>
+      </c>
+      <c r="I417">
+        <v>999</v>
+      </c>
+      <c r="J417">
+        <v>999</v>
+      </c>
+      <c r="K417">
+        <v>999</v>
+      </c>
+      <c r="L417">
+        <v>999</v>
+      </c>
+      <c r="M417">
+        <v>999</v>
+      </c>
+      <c r="N417">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14">
+      <c r="A418" t="s">
+        <v>24</v>
+      </c>
+      <c r="B418">
+        <v>999</v>
+      </c>
+      <c r="C418">
+        <v>999</v>
+      </c>
+      <c r="D418">
+        <v>999</v>
+      </c>
+      <c r="E418">
+        <v>999</v>
+      </c>
+      <c r="F418">
+        <v>999</v>
+      </c>
+      <c r="G418">
+        <v>999</v>
+      </c>
+      <c r="H418">
+        <v>999</v>
+      </c>
+      <c r="I418">
+        <v>999</v>
+      </c>
+      <c r="J418">
+        <v>999</v>
+      </c>
+      <c r="K418">
+        <v>999</v>
+      </c>
+      <c r="L418">
+        <v>999</v>
+      </c>
+      <c r="M418">
+        <v>999</v>
+      </c>
+      <c r="N418">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14">
+      <c r="A419" t="s">
+        <v>24</v>
+      </c>
+      <c r="B419">
+        <v>999</v>
+      </c>
+      <c r="C419">
+        <v>999</v>
+      </c>
+      <c r="D419">
+        <v>999</v>
+      </c>
+      <c r="E419">
+        <v>999</v>
+      </c>
+      <c r="F419">
+        <v>999</v>
+      </c>
+      <c r="G419">
+        <v>999</v>
+      </c>
+      <c r="H419">
+        <v>999</v>
+      </c>
+      <c r="I419">
+        <v>999</v>
+      </c>
+      <c r="J419">
+        <v>999</v>
+      </c>
+      <c r="K419">
+        <v>999</v>
+      </c>
+      <c r="L419">
+        <v>999</v>
+      </c>
+      <c r="M419">
+        <v>999</v>
+      </c>
+      <c r="N419">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14">
+      <c r="A420" t="s">
+        <v>24</v>
+      </c>
+      <c r="B420">
+        <v>999</v>
+      </c>
+      <c r="C420">
+        <v>999</v>
+      </c>
+      <c r="D420">
+        <v>999</v>
+      </c>
+      <c r="E420">
+        <v>999</v>
+      </c>
+      <c r="F420">
+        <v>999</v>
+      </c>
+      <c r="G420">
+        <v>999</v>
+      </c>
+      <c r="H420">
+        <v>999</v>
+      </c>
+      <c r="I420">
+        <v>999</v>
+      </c>
+      <c r="J420">
+        <v>999</v>
+      </c>
+      <c r="K420">
+        <v>999</v>
+      </c>
+      <c r="L420">
+        <v>999</v>
+      </c>
+      <c r="M420">
+        <v>999</v>
+      </c>
+      <c r="N420">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14">
+      <c r="A421" t="s">
+        <v>24</v>
+      </c>
+      <c r="B421">
+        <v>999</v>
+      </c>
+      <c r="C421">
+        <v>999</v>
+      </c>
+      <c r="D421">
+        <v>999</v>
+      </c>
+      <c r="E421">
+        <v>999</v>
+      </c>
+      <c r="F421">
+        <v>999</v>
+      </c>
+      <c r="G421">
+        <v>999</v>
+      </c>
+      <c r="H421">
+        <v>999</v>
+      </c>
+      <c r="I421">
+        <v>999</v>
+      </c>
+      <c r="J421">
+        <v>999</v>
+      </c>
+      <c r="K421">
+        <v>999</v>
+      </c>
+      <c r="L421">
+        <v>999</v>
+      </c>
+      <c r="M421">
+        <v>999</v>
+      </c>
+      <c r="N421">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14">
+      <c r="A422" t="s">
+        <v>24</v>
+      </c>
+      <c r="B422">
+        <v>999</v>
+      </c>
+      <c r="C422">
+        <v>999</v>
+      </c>
+      <c r="D422">
+        <v>999</v>
+      </c>
+      <c r="E422">
+        <v>999</v>
+      </c>
+      <c r="F422">
+        <v>999</v>
+      </c>
+      <c r="G422">
+        <v>999</v>
+      </c>
+      <c r="H422">
+        <v>999</v>
+      </c>
+      <c r="I422">
+        <v>999</v>
+      </c>
+      <c r="J422">
+        <v>999</v>
+      </c>
+      <c r="K422">
+        <v>999</v>
+      </c>
+      <c r="L422">
+        <v>999</v>
+      </c>
+      <c r="M422">
+        <v>999</v>
+      </c>
+      <c r="N422">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14">
+      <c r="A423" t="s">
+        <v>24</v>
+      </c>
+      <c r="B423">
+        <v>999</v>
+      </c>
+      <c r="C423">
+        <v>999</v>
+      </c>
+      <c r="D423">
+        <v>999</v>
+      </c>
+      <c r="E423">
+        <v>999</v>
+      </c>
+      <c r="F423">
+        <v>999</v>
+      </c>
+      <c r="G423">
+        <v>999</v>
+      </c>
+      <c r="H423">
+        <v>999</v>
+      </c>
+      <c r="I423">
+        <v>999</v>
+      </c>
+      <c r="J423">
+        <v>999</v>
+      </c>
+      <c r="K423">
+        <v>999</v>
+      </c>
+      <c r="L423">
+        <v>999</v>
+      </c>
+      <c r="M423">
+        <v>999</v>
+      </c>
+      <c r="N423">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14">
+      <c r="A424" t="s">
+        <v>24</v>
+      </c>
+      <c r="B424">
+        <v>999</v>
+      </c>
+      <c r="C424">
+        <v>999</v>
+      </c>
+      <c r="D424">
+        <v>999</v>
+      </c>
+      <c r="E424">
+        <v>999</v>
+      </c>
+      <c r="F424">
+        <v>999</v>
+      </c>
+      <c r="G424">
+        <v>999</v>
+      </c>
+      <c r="H424">
+        <v>999</v>
+      </c>
+      <c r="I424">
+        <v>999</v>
+      </c>
+      <c r="J424">
+        <v>999</v>
+      </c>
+      <c r="K424">
+        <v>999</v>
+      </c>
+      <c r="L424">
+        <v>999</v>
+      </c>
+      <c r="M424">
+        <v>999</v>
+      </c>
+      <c r="N424">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14">
+      <c r="A425" t="s">
+        <v>24</v>
+      </c>
+      <c r="B425">
+        <v>999</v>
+      </c>
+      <c r="C425">
+        <v>999</v>
+      </c>
+      <c r="D425">
+        <v>999</v>
+      </c>
+      <c r="E425">
+        <v>999</v>
+      </c>
+      <c r="F425">
+        <v>999</v>
+      </c>
+      <c r="G425">
+        <v>999</v>
+      </c>
+      <c r="H425">
+        <v>999</v>
+      </c>
+      <c r="I425">
+        <v>999</v>
+      </c>
+      <c r="J425">
+        <v>999</v>
+      </c>
+      <c r="K425">
+        <v>999</v>
+      </c>
+      <c r="L425">
+        <v>999</v>
+      </c>
+      <c r="M425">
+        <v>999</v>
+      </c>
+      <c r="N425">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14">
+      <c r="A426" t="s">
+        <v>24</v>
+      </c>
+      <c r="B426">
+        <v>999</v>
+      </c>
+      <c r="C426">
+        <v>999</v>
+      </c>
+      <c r="D426">
+        <v>999</v>
+      </c>
+      <c r="E426">
+        <v>999</v>
+      </c>
+      <c r="F426">
+        <v>999</v>
+      </c>
+      <c r="G426">
+        <v>999</v>
+      </c>
+      <c r="H426">
+        <v>999</v>
+      </c>
+      <c r="I426">
+        <v>999</v>
+      </c>
+      <c r="J426">
+        <v>999</v>
+      </c>
+      <c r="K426">
+        <v>999</v>
+      </c>
+      <c r="L426">
+        <v>999</v>
+      </c>
+      <c r="M426">
+        <v>999</v>
+      </c>
+      <c r="N426">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14">
+      <c r="A427" t="s">
+        <v>24</v>
+      </c>
+      <c r="B427">
+        <v>999</v>
+      </c>
+      <c r="C427">
+        <v>999</v>
+      </c>
+      <c r="D427">
+        <v>999</v>
+      </c>
+      <c r="E427">
+        <v>999</v>
+      </c>
+      <c r="F427">
+        <v>999</v>
+      </c>
+      <c r="G427">
+        <v>999</v>
+      </c>
+      <c r="H427">
+        <v>999</v>
+      </c>
+      <c r="I427">
+        <v>999</v>
+      </c>
+      <c r="J427">
+        <v>999</v>
+      </c>
+      <c r="K427">
+        <v>999</v>
+      </c>
+      <c r="L427">
+        <v>999</v>
+      </c>
+      <c r="M427">
+        <v>999</v>
+      </c>
+      <c r="N427">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14">
+      <c r="A428" t="s">
+        <v>24</v>
+      </c>
+      <c r="B428">
+        <v>999</v>
+      </c>
+      <c r="C428">
+        <v>999</v>
+      </c>
+      <c r="D428">
+        <v>999</v>
+      </c>
+      <c r="E428">
+        <v>999</v>
+      </c>
+      <c r="F428">
+        <v>999</v>
+      </c>
+      <c r="G428">
+        <v>999</v>
+      </c>
+      <c r="H428">
+        <v>999</v>
+      </c>
+      <c r="I428">
+        <v>999</v>
+      </c>
+      <c r="J428">
+        <v>999</v>
+      </c>
+      <c r="K428">
+        <v>999</v>
+      </c>
+      <c r="L428">
+        <v>999</v>
+      </c>
+      <c r="M428">
+        <v>999</v>
+      </c>
+      <c r="N428">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14">
+      <c r="A429" t="s">
+        <v>24</v>
+      </c>
+      <c r="B429">
+        <v>999</v>
+      </c>
+      <c r="C429">
+        <v>999</v>
+      </c>
+      <c r="D429">
+        <v>999</v>
+      </c>
+      <c r="E429">
+        <v>999</v>
+      </c>
+      <c r="F429">
+        <v>999</v>
+      </c>
+      <c r="G429">
+        <v>999</v>
+      </c>
+      <c r="H429">
+        <v>999</v>
+      </c>
+      <c r="I429">
+        <v>999</v>
+      </c>
+      <c r="J429">
+        <v>999</v>
+      </c>
+      <c r="K429">
+        <v>999</v>
+      </c>
+      <c r="L429">
+        <v>999</v>
+      </c>
+      <c r="M429">
+        <v>999</v>
+      </c>
+      <c r="N429">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14">
+      <c r="A430" t="s">
+        <v>24</v>
+      </c>
+      <c r="B430">
+        <v>999</v>
+      </c>
+      <c r="C430">
+        <v>999</v>
+      </c>
+      <c r="D430">
+        <v>999</v>
+      </c>
+      <c r="E430">
+        <v>999</v>
+      </c>
+      <c r="F430">
+        <v>999</v>
+      </c>
+      <c r="G430">
+        <v>999</v>
+      </c>
+      <c r="H430">
+        <v>999</v>
+      </c>
+      <c r="I430">
+        <v>999</v>
+      </c>
+      <c r="J430">
+        <v>999</v>
+      </c>
+      <c r="K430">
+        <v>999</v>
+      </c>
+      <c r="L430">
+        <v>999</v>
+      </c>
+      <c r="M430">
+        <v>999</v>
+      </c>
+      <c r="N430">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14">
+      <c r="A431" t="s">
+        <v>24</v>
+      </c>
+      <c r="B431">
+        <v>0.02130764740221833</v>
+      </c>
+      <c r="C431">
+        <v>0.0008756567425569177</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>0.003210741389375365</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>0.0005837711617046118</v>
+      </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
+      <c r="I431">
+        <v>0.0008756567425569177</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0.0002918855808523059</v>
+      </c>
+      <c r="L431">
+        <v>0</v>
+      </c>
+      <c r="M431">
+        <v>0.0002918855808523059</v>
+      </c>
+      <c r="N431">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14">
+      <c r="A432" t="s">
+        <v>24</v>
+      </c>
+      <c r="B432">
+        <v>0.008884073672806067</v>
+      </c>
+      <c r="C432">
+        <v>0.0006500541711809318</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>0.00238353196099675</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>0.000866738894907909</v>
+      </c>
+      <c r="I432">
+        <v>0.0004333694474539545</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432">
+        <v>0.000866738894907909</v>
+      </c>
+      <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14">
+      <c r="A433" t="s">
+        <v>24</v>
+      </c>
+      <c r="B433">
+        <v>999</v>
+      </c>
+      <c r="C433">
+        <v>999</v>
+      </c>
+      <c r="D433">
+        <v>999</v>
+      </c>
+      <c r="E433">
+        <v>999</v>
+      </c>
+      <c r="F433">
+        <v>999</v>
+      </c>
+      <c r="G433">
+        <v>999</v>
+      </c>
+      <c r="H433">
+        <v>999</v>
+      </c>
+      <c r="I433">
+        <v>999</v>
+      </c>
+      <c r="J433">
+        <v>999</v>
+      </c>
+      <c r="K433">
+        <v>999</v>
+      </c>
+      <c r="L433">
+        <v>999</v>
+      </c>
+      <c r="M433">
+        <v>999</v>
+      </c>
+      <c r="N433">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14">
+      <c r="A434" t="s">
+        <v>24</v>
+      </c>
+      <c r="B434">
+        <v>0.006320779562812747</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>0.0002633658151171978</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+      <c r="I434">
+        <v>0.0007900974453515934</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>0</v>
+      </c>
+      <c r="L434">
+        <v>0.0005267316302343956</v>
+      </c>
+      <c r="M434">
+        <v>0</v>
+      </c>
+      <c r="N434">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14">
+      <c r="A435" t="s">
+        <v>24</v>
+      </c>
+      <c r="B435">
+        <v>0.008366291451171281</v>
+      </c>
+      <c r="C435">
+        <v>0.000608457560085184</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>0.00152114390021296</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435">
+        <v>0.000152114390021296</v>
+      </c>
+      <c r="H435">
+        <v>0.000608457560085184</v>
+      </c>
+      <c r="I435">
+        <v>0.000608457560085184</v>
+      </c>
+      <c r="J435">
+        <v>0.000304228780042592</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="L435">
+        <v>0.000304228780042592</v>
+      </c>
+      <c r="M435">
+        <v>0.000304228780042592</v>
+      </c>
+      <c r="N435">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14">
+      <c r="A436" t="s">
+        <v>24</v>
+      </c>
+      <c r="B436">
+        <v>0.01265822784810127</v>
+      </c>
+      <c r="C436">
+        <v>0.0006027727546714888</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>0.0006027727546714888</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
+      </c>
+      <c r="I436">
+        <v>0.0006027727546714888</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+      <c r="L436">
+        <v>0</v>
+      </c>
+      <c r="M436">
+        <v>0.0006027727546714888</v>
+      </c>
+      <c r="N436">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14">
+      <c r="A437" t="s">
+        <v>24</v>
+      </c>
+      <c r="B437">
+        <v>999</v>
+      </c>
+      <c r="C437">
+        <v>999</v>
+      </c>
+      <c r="D437">
+        <v>999</v>
+      </c>
+      <c r="E437">
+        <v>999</v>
+      </c>
+      <c r="F437">
+        <v>999</v>
+      </c>
+      <c r="G437">
+        <v>999</v>
+      </c>
+      <c r="H437">
+        <v>999</v>
+      </c>
+      <c r="I437">
+        <v>999</v>
+      </c>
+      <c r="J437">
+        <v>999</v>
+      </c>
+      <c r="K437">
+        <v>999</v>
+      </c>
+      <c r="L437">
+        <v>999</v>
+      </c>
+      <c r="M437">
+        <v>999</v>
+      </c>
+      <c r="N437">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14">
+      <c r="A438" t="s">
+        <v>24</v>
+      </c>
+      <c r="B438">
+        <v>0.05460385438972163</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>0.002141327623126338</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>0.001070663811563169</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="L438">
+        <v>0</v>
+      </c>
+      <c r="M438">
+        <v>0</v>
+      </c>
+      <c r="N438">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14">
+      <c r="A439" t="s">
+        <v>24</v>
+      </c>
+      <c r="B439">
+        <v>999</v>
+      </c>
+      <c r="C439">
+        <v>999</v>
+      </c>
+      <c r="D439">
+        <v>999</v>
+      </c>
+      <c r="E439">
+        <v>999</v>
+      </c>
+      <c r="F439">
+        <v>999</v>
+      </c>
+      <c r="G439">
+        <v>999</v>
+      </c>
+      <c r="H439">
+        <v>999</v>
+      </c>
+      <c r="I439">
+        <v>999</v>
+      </c>
+      <c r="J439">
+        <v>999</v>
+      </c>
+      <c r="K439">
+        <v>999</v>
+      </c>
+      <c r="L439">
+        <v>999</v>
+      </c>
+      <c r="M439">
+        <v>999</v>
+      </c>
+      <c r="N439">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14">
+      <c r="A440" t="s">
+        <v>24</v>
+      </c>
+      <c r="B440">
+        <v>0.02080309627479439</v>
+      </c>
+      <c r="C440">
+        <v>0.0004837929366231253</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>0.0004837929366231253</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>0.0009675858732462506</v>
+      </c>
+      <c r="H440">
+        <v>0.001451378809869376</v>
+      </c>
+      <c r="I440">
+        <v>0.0004837929366231253</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+      <c r="L440">
+        <v>0.0009675858732462506</v>
+      </c>
+      <c r="M440">
+        <v>0.0004837929366231253</v>
+      </c>
+      <c r="N440">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14">
+      <c r="A441" t="s">
+        <v>24</v>
+      </c>
+      <c r="B441">
+        <v>999</v>
+      </c>
+      <c r="C441">
+        <v>999</v>
+      </c>
+      <c r="D441">
+        <v>999</v>
+      </c>
+      <c r="E441">
+        <v>999</v>
+      </c>
+      <c r="F441">
+        <v>999</v>
+      </c>
+      <c r="G441">
+        <v>999</v>
+      </c>
+      <c r="H441">
+        <v>999</v>
+      </c>
+      <c r="I441">
+        <v>999</v>
+      </c>
+      <c r="J441">
+        <v>999</v>
+      </c>
+      <c r="K441">
+        <v>999</v>
+      </c>
+      <c r="L441">
+        <v>999</v>
+      </c>
+      <c r="M441">
+        <v>999</v>
+      </c>
+      <c r="N441">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14">
+      <c r="A442" t="s">
+        <v>24</v>
+      </c>
+      <c r="B442">
+        <v>999</v>
+      </c>
+      <c r="C442">
+        <v>999</v>
+      </c>
+      <c r="D442">
+        <v>999</v>
+      </c>
+      <c r="E442">
+        <v>999</v>
+      </c>
+      <c r="F442">
+        <v>999</v>
+      </c>
+      <c r="G442">
+        <v>999</v>
+      </c>
+      <c r="H442">
+        <v>999</v>
+      </c>
+      <c r="I442">
+        <v>999</v>
+      </c>
+      <c r="J442">
+        <v>999</v>
+      </c>
+      <c r="K442">
+        <v>999</v>
+      </c>
+      <c r="L442">
+        <v>999</v>
+      </c>
+      <c r="M442">
+        <v>999</v>
+      </c>
+      <c r="N442">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14">
+      <c r="A443" t="s">
+        <v>24</v>
+      </c>
+      <c r="B443">
+        <v>0.02938034188034188</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>0.002136752136752137</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+      <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
+      </c>
+      <c r="M443">
+        <v>0</v>
+      </c>
+      <c r="N443">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14">
+      <c r="A444" t="s">
+        <v>24</v>
+      </c>
+      <c r="B444">
+        <v>0.03494528768090364</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>0.0003529827038475115</v>
+      </c>
+      <c r="E444">
+        <v>0.003176844334627603</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>0.0003529827038475115</v>
+      </c>
+      <c r="I444">
+        <v>0.0003529827038475115</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0.0007059654076950229</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
+      </c>
+      <c r="M444">
+        <v>0</v>
+      </c>
+      <c r="N444">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14">
+      <c r="A445" t="s">
+        <v>24</v>
+      </c>
+      <c r="B445">
+        <v>0.04088121735180559</v>
+      </c>
+      <c r="C445">
+        <v>0.001135589370883489</v>
+      </c>
+      <c r="D445">
+        <v>0.0002271178741766977</v>
+      </c>
+      <c r="E445">
+        <v>0.001362707245060186</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>0.0006813536225300931</v>
+      </c>
+      <c r="H445">
+        <v>0.0004542357483533954</v>
+      </c>
+      <c r="I445">
+        <v>0.003406768112650465</v>
+      </c>
+      <c r="J445">
+        <v>0.0004542357483533954</v>
+      </c>
+      <c r="K445">
+        <v>0.0009084714967067908</v>
+      </c>
+      <c r="L445">
+        <v>0.0004542357483533954</v>
+      </c>
+      <c r="M445">
+        <v>0.001589825119236884</v>
+      </c>
+      <c r="N445">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14">
+      <c r="A446" t="s">
+        <v>24</v>
+      </c>
+      <c r="B446">
+        <v>0.03897637795275591</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>0.001574803149606299</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>0.0003937007874015748</v>
+      </c>
+      <c r="H446">
+        <v>0.0007874015748031496</v>
+      </c>
+      <c r="I446">
+        <v>0.001574803149606299</v>
+      </c>
+      <c r="J446">
+        <v>0.0003937007874015748</v>
+      </c>
+      <c r="K446">
+        <v>0.0007874015748031496</v>
+      </c>
+      <c r="L446">
+        <v>0</v>
+      </c>
+      <c r="M446">
+        <v>0.0007874015748031496</v>
+      </c>
+      <c r="N446">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14">
+      <c r="A447" t="s">
+        <v>24</v>
+      </c>
+      <c r="B447">
+        <v>0.04535996670828132</v>
+      </c>
+      <c r="C447">
+        <v>0.0004161464835622139</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="E447">
+        <v>0.003329171868497711</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>0</v>
+      </c>
+      <c r="H447">
+        <v>0.001664585934248856</v>
+      </c>
+      <c r="I447">
+        <v>0.001248439450686642</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>0</v>
+      </c>
+      <c r="M447">
+        <v>0.0008322929671244278</v>
+      </c>
+      <c r="N447">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14">
+      <c r="A448" t="s">
+        <v>24</v>
+      </c>
+      <c r="B448">
+        <v>0.04523026315789474</v>
+      </c>
+      <c r="C448">
+        <v>0.0008223684210526315</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>0.001233552631578947</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448">
+        <v>0.0004111842105263158</v>
+      </c>
+      <c r="H448">
+        <v>0.0004111842105263158</v>
+      </c>
+      <c r="I448">
+        <v>0.0004111842105263158</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0.0008223684210526315</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+      <c r="M448">
+        <v>0.0004111842105263158</v>
+      </c>
+      <c r="N448">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14">
+      <c r="A449" t="s">
+        <v>24</v>
+      </c>
+      <c r="B449">
+        <v>0.04432301153612629</v>
+      </c>
+      <c r="C449">
+        <v>0.001214329083181542</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>0.0006071645415907711</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449">
+        <v>0.0006071645415907711</v>
+      </c>
+      <c r="H449">
+        <v>0.001821493624772313</v>
+      </c>
+      <c r="I449">
+        <v>0.0006071645415907711</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0.002428658166363085</v>
+      </c>
+      <c r="L449">
+        <v>0</v>
+      </c>
+      <c r="M449">
+        <v>0.0006071645415907711</v>
+      </c>
+      <c r="N449">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14">
+      <c r="A450" t="s">
+        <v>24</v>
+      </c>
+      <c r="B450">
+        <v>0.03116260487415102</v>
+      </c>
+      <c r="C450">
+        <v>0.0007990411506192569</v>
+      </c>
+      <c r="D450">
+        <v>0.0003995205753096284</v>
+      </c>
+      <c r="E450">
+        <v>0.001598082301238514</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+      <c r="G450">
+        <v>0.0003995205753096284</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0.002796644027167399</v>
+      </c>
+      <c r="L450">
+        <v>0.0003995205753096284</v>
+      </c>
+      <c r="M450">
+        <v>0</v>
+      </c>
+      <c r="N450">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14">
+      <c r="A451" t="s">
+        <v>24</v>
+      </c>
+      <c r="B451">
+        <v>0.04380841121495327</v>
+      </c>
+      <c r="C451">
+        <v>0.0005841121495327102</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>0.0005841121495327102</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451">
+        <v>0.002336448598130841</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0.00116822429906542</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
+      </c>
+      <c r="M451">
+        <v>0</v>
+      </c>
+      <c r="N451">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14">
+      <c r="A452" t="s">
+        <v>24</v>
+      </c>
+      <c r="B452">
+        <v>0.04640442532267978</v>
+      </c>
+      <c r="C452">
+        <v>0.0003073140749846343</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0.003687768899815611</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>0.0006146281499692685</v>
+      </c>
+      <c r="I452">
+        <v>0.0003073140749846343</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0.0006146281499692685</v>
+      </c>
+      <c r="L452">
+        <v>0</v>
+      </c>
+      <c r="M452">
+        <v>0.0006146281499692685</v>
+      </c>
+      <c r="N452">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14">
+      <c r="A453" t="s">
+        <v>25</v>
+      </c>
+      <c r="B453">
+        <v>999</v>
+      </c>
+      <c r="C453">
+        <v>999</v>
+      </c>
+      <c r="D453">
+        <v>999</v>
+      </c>
+      <c r="E453">
+        <v>999</v>
+      </c>
+      <c r="F453">
+        <v>999</v>
+      </c>
+      <c r="G453">
+        <v>999</v>
+      </c>
+      <c r="H453">
+        <v>999</v>
+      </c>
+      <c r="I453">
+        <v>999</v>
+      </c>
+      <c r="J453">
+        <v>999</v>
+      </c>
+      <c r="K453">
+        <v>999</v>
+      </c>
+      <c r="L453">
+        <v>999</v>
+      </c>
+      <c r="M453">
+        <v>999</v>
+      </c>
+      <c r="N453">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14">
+      <c r="A454" t="s">
+        <v>25</v>
+      </c>
+      <c r="B454">
+        <v>999</v>
+      </c>
+      <c r="C454">
+        <v>999</v>
+      </c>
+      <c r="D454">
+        <v>999</v>
+      </c>
+      <c r="E454">
+        <v>999</v>
+      </c>
+      <c r="F454">
+        <v>999</v>
+      </c>
+      <c r="G454">
+        <v>999</v>
+      </c>
+      <c r="H454">
+        <v>999</v>
+      </c>
+      <c r="I454">
+        <v>999</v>
+      </c>
+      <c r="J454">
+        <v>999</v>
+      </c>
+      <c r="K454">
+        <v>999</v>
+      </c>
+      <c r="L454">
+        <v>999</v>
+      </c>
+      <c r="M454">
+        <v>999</v>
+      </c>
+      <c r="N454">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14">
+      <c r="A455" t="s">
+        <v>25</v>
+      </c>
+      <c r="B455">
+        <v>999</v>
+      </c>
+      <c r="C455">
+        <v>999</v>
+      </c>
+      <c r="D455">
+        <v>999</v>
+      </c>
+      <c r="E455">
+        <v>999</v>
+      </c>
+      <c r="F455">
+        <v>999</v>
+      </c>
+      <c r="G455">
+        <v>999</v>
+      </c>
+      <c r="H455">
+        <v>999</v>
+      </c>
+      <c r="I455">
+        <v>999</v>
+      </c>
+      <c r="J455">
+        <v>999</v>
+      </c>
+      <c r="K455">
+        <v>999</v>
+      </c>
+      <c r="L455">
+        <v>999</v>
+      </c>
+      <c r="M455">
+        <v>999</v>
+      </c>
+      <c r="N455">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14">
+      <c r="A456" t="s">
+        <v>25</v>
+      </c>
+      <c r="B456">
+        <v>999</v>
+      </c>
+      <c r="C456">
+        <v>999</v>
+      </c>
+      <c r="D456">
+        <v>999</v>
+      </c>
+      <c r="E456">
+        <v>999</v>
+      </c>
+      <c r="F456">
+        <v>999</v>
+      </c>
+      <c r="G456">
+        <v>999</v>
+      </c>
+      <c r="H456">
+        <v>999</v>
+      </c>
+      <c r="I456">
+        <v>999</v>
+      </c>
+      <c r="J456">
+        <v>999</v>
+      </c>
+      <c r="K456">
+        <v>999</v>
+      </c>
+      <c r="L456">
+        <v>999</v>
+      </c>
+      <c r="M456">
+        <v>999</v>
+      </c>
+      <c r="N456">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14">
+      <c r="A457" t="s">
+        <v>25</v>
+      </c>
+      <c r="B457">
+        <v>999</v>
+      </c>
+      <c r="C457">
+        <v>999</v>
+      </c>
+      <c r="D457">
+        <v>999</v>
+      </c>
+      <c r="E457">
+        <v>999</v>
+      </c>
+      <c r="F457">
+        <v>999</v>
+      </c>
+      <c r="G457">
+        <v>999</v>
+      </c>
+      <c r="H457">
+        <v>999</v>
+      </c>
+      <c r="I457">
+        <v>999</v>
+      </c>
+      <c r="J457">
+        <v>999</v>
+      </c>
+      <c r="K457">
+        <v>999</v>
+      </c>
+      <c r="L457">
+        <v>999</v>
+      </c>
+      <c r="M457">
+        <v>999</v>
+      </c>
+      <c r="N457">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14">
+      <c r="A458" t="s">
+        <v>25</v>
+      </c>
+      <c r="B458">
+        <v>999</v>
+      </c>
+      <c r="C458">
+        <v>999</v>
+      </c>
+      <c r="D458">
+        <v>999</v>
+      </c>
+      <c r="E458">
+        <v>999</v>
+      </c>
+      <c r="F458">
+        <v>999</v>
+      </c>
+      <c r="G458">
+        <v>999</v>
+      </c>
+      <c r="H458">
+        <v>999</v>
+      </c>
+      <c r="I458">
+        <v>999</v>
+      </c>
+      <c r="J458">
+        <v>999</v>
+      </c>
+      <c r="K458">
+        <v>999</v>
+      </c>
+      <c r="L458">
+        <v>999</v>
+      </c>
+      <c r="M458">
+        <v>999</v>
+      </c>
+      <c r="N458">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14">
+      <c r="A459" t="s">
+        <v>25</v>
+      </c>
+      <c r="B459">
+        <v>999</v>
+      </c>
+      <c r="C459">
+        <v>999</v>
+      </c>
+      <c r="D459">
+        <v>999</v>
+      </c>
+      <c r="E459">
+        <v>999</v>
+      </c>
+      <c r="F459">
+        <v>999</v>
+      </c>
+      <c r="G459">
+        <v>999</v>
+      </c>
+      <c r="H459">
+        <v>999</v>
+      </c>
+      <c r="I459">
+        <v>999</v>
+      </c>
+      <c r="J459">
+        <v>999</v>
+      </c>
+      <c r="K459">
+        <v>999</v>
+      </c>
+      <c r="L459">
+        <v>999</v>
+      </c>
+      <c r="M459">
+        <v>999</v>
+      </c>
+      <c r="N459">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14">
+      <c r="A460" t="s">
+        <v>25</v>
+      </c>
+      <c r="B460">
+        <v>999</v>
+      </c>
+      <c r="C460">
+        <v>999</v>
+      </c>
+      <c r="D460">
+        <v>999</v>
+      </c>
+      <c r="E460">
+        <v>999</v>
+      </c>
+      <c r="F460">
+        <v>999</v>
+      </c>
+      <c r="G460">
+        <v>999</v>
+      </c>
+      <c r="H460">
+        <v>999</v>
+      </c>
+      <c r="I460">
+        <v>999</v>
+      </c>
+      <c r="J460">
+        <v>999</v>
+      </c>
+      <c r="K460">
+        <v>999</v>
+      </c>
+      <c r="L460">
+        <v>999</v>
+      </c>
+      <c r="M460">
+        <v>999</v>
+      </c>
+      <c r="N460">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14">
+      <c r="A461" t="s">
+        <v>25</v>
+      </c>
+      <c r="B461">
+        <v>999</v>
+      </c>
+      <c r="C461">
+        <v>999</v>
+      </c>
+      <c r="D461">
+        <v>999</v>
+      </c>
+      <c r="E461">
+        <v>999</v>
+      </c>
+      <c r="F461">
+        <v>999</v>
+      </c>
+      <c r="G461">
+        <v>999</v>
+      </c>
+      <c r="H461">
+        <v>999</v>
+      </c>
+      <c r="I461">
+        <v>999</v>
+      </c>
+      <c r="J461">
+        <v>999</v>
+      </c>
+      <c r="K461">
+        <v>999</v>
+      </c>
+      <c r="L461">
+        <v>999</v>
+      </c>
+      <c r="M461">
+        <v>999</v>
+      </c>
+      <c r="N461">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14">
+      <c r="A462" t="s">
+        <v>25</v>
+      </c>
+      <c r="B462">
+        <v>999</v>
+      </c>
+      <c r="C462">
+        <v>999</v>
+      </c>
+      <c r="D462">
+        <v>999</v>
+      </c>
+      <c r="E462">
+        <v>999</v>
+      </c>
+      <c r="F462">
+        <v>999</v>
+      </c>
+      <c r="G462">
+        <v>999</v>
+      </c>
+      <c r="H462">
+        <v>999</v>
+      </c>
+      <c r="I462">
+        <v>999</v>
+      </c>
+      <c r="J462">
+        <v>999</v>
+      </c>
+      <c r="K462">
+        <v>999</v>
+      </c>
+      <c r="L462">
+        <v>999</v>
+      </c>
+      <c r="M462">
+        <v>999</v>
+      </c>
+      <c r="N462">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14">
+      <c r="A463" t="s">
+        <v>25</v>
+      </c>
+      <c r="B463">
+        <v>999</v>
+      </c>
+      <c r="C463">
+        <v>999</v>
+      </c>
+      <c r="D463">
+        <v>999</v>
+      </c>
+      <c r="E463">
+        <v>999</v>
+      </c>
+      <c r="F463">
+        <v>999</v>
+      </c>
+      <c r="G463">
+        <v>999</v>
+      </c>
+      <c r="H463">
+        <v>999</v>
+      </c>
+      <c r="I463">
+        <v>999</v>
+      </c>
+      <c r="J463">
+        <v>999</v>
+      </c>
+      <c r="K463">
+        <v>999</v>
+      </c>
+      <c r="L463">
+        <v>999</v>
+      </c>
+      <c r="M463">
+        <v>999</v>
+      </c>
+      <c r="N463">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14">
+      <c r="A464" t="s">
+        <v>25</v>
+      </c>
+      <c r="B464">
+        <v>999</v>
+      </c>
+      <c r="C464">
+        <v>999</v>
+      </c>
+      <c r="D464">
+        <v>999</v>
+      </c>
+      <c r="E464">
+        <v>999</v>
+      </c>
+      <c r="F464">
+        <v>999</v>
+      </c>
+      <c r="G464">
+        <v>999</v>
+      </c>
+      <c r="H464">
+        <v>999</v>
+      </c>
+      <c r="I464">
+        <v>999</v>
+      </c>
+      <c r="J464">
+        <v>999</v>
+      </c>
+      <c r="K464">
+        <v>999</v>
+      </c>
+      <c r="L464">
+        <v>999</v>
+      </c>
+      <c r="M464">
+        <v>999</v>
+      </c>
+      <c r="N464">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14">
+      <c r="A465" t="s">
+        <v>25</v>
+      </c>
+      <c r="B465">
+        <v>999</v>
+      </c>
+      <c r="C465">
+        <v>999</v>
+      </c>
+      <c r="D465">
+        <v>999</v>
+      </c>
+      <c r="E465">
+        <v>999</v>
+      </c>
+      <c r="F465">
+        <v>999</v>
+      </c>
+      <c r="G465">
+        <v>999</v>
+      </c>
+      <c r="H465">
+        <v>999</v>
+      </c>
+      <c r="I465">
+        <v>999</v>
+      </c>
+      <c r="J465">
+        <v>999</v>
+      </c>
+      <c r="K465">
+        <v>999</v>
+      </c>
+      <c r="L465">
+        <v>999</v>
+      </c>
+      <c r="M465">
+        <v>999</v>
+      </c>
+      <c r="N465">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14">
+      <c r="A466" t="s">
+        <v>25</v>
+      </c>
+      <c r="B466">
+        <v>999</v>
+      </c>
+      <c r="C466">
+        <v>999</v>
+      </c>
+      <c r="D466">
+        <v>999</v>
+      </c>
+      <c r="E466">
+        <v>999</v>
+      </c>
+      <c r="F466">
+        <v>999</v>
+      </c>
+      <c r="G466">
+        <v>999</v>
+      </c>
+      <c r="H466">
+        <v>999</v>
+      </c>
+      <c r="I466">
+        <v>999</v>
+      </c>
+      <c r="J466">
+        <v>999</v>
+      </c>
+      <c r="K466">
+        <v>999</v>
+      </c>
+      <c r="L466">
+        <v>999</v>
+      </c>
+      <c r="M466">
+        <v>999</v>
+      </c>
+      <c r="N466">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14">
+      <c r="A467" t="s">
+        <v>25</v>
+      </c>
+      <c r="B467">
+        <v>0.05077574047954866</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+      <c r="H467">
+        <v>0</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0.004231311706629055</v>
+      </c>
+      <c r="L467">
+        <v>0</v>
+      </c>
+      <c r="M467">
+        <v>0</v>
+      </c>
+      <c r="N467">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14">
+      <c r="A468" t="s">
+        <v>25</v>
+      </c>
+      <c r="B468">
+        <v>0.01823154056517776</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>0.00227894257064722</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468">
+        <v>0.0004557885141294439</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0.0004557885141294439</v>
+      </c>
+      <c r="L468">
+        <v>0</v>
+      </c>
+      <c r="M468">
+        <v>0.0004557885141294439</v>
+      </c>
+      <c r="N468">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14">
+      <c r="A469" t="s">
+        <v>25</v>
+      </c>
+      <c r="B469">
+        <v>0.02870090634441088</v>
+      </c>
+      <c r="C469">
+        <v>0.001007049345417925</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="E469">
+        <v>0.003021148036253776</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+      <c r="G469">
+        <v>0</v>
+      </c>
+      <c r="H469">
+        <v>0.0005035246727089627</v>
+      </c>
+      <c r="I469">
+        <v>0.0005035246727089627</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>0.001007049345417925</v>
+      </c>
+      <c r="L469">
+        <v>0.0005035246727089627</v>
+      </c>
+      <c r="M469">
+        <v>0</v>
+      </c>
+      <c r="N469">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14">
+      <c r="A470" t="s">
+        <v>25</v>
+      </c>
+      <c r="B470">
+        <v>0.01469723691945914</v>
+      </c>
+      <c r="C470">
+        <v>0.0002939447383891828</v>
+      </c>
+      <c r="D470">
+        <v>0.0005878894767783657</v>
+      </c>
+      <c r="E470">
+        <v>0.001469723691945914</v>
+      </c>
+      <c r="F470">
+        <v>0</v>
+      </c>
+      <c r="G470">
+        <v>0.0005878894767783657</v>
+      </c>
+      <c r="H470">
+        <v>0.0008818342151675485</v>
+      </c>
+      <c r="I470">
+        <v>0.0008818342151675485</v>
+      </c>
+      <c r="J470">
+        <v>0.0002939447383891828</v>
+      </c>
+      <c r="K470">
+        <v>0</v>
+      </c>
+      <c r="L470">
+        <v>0.0005878894767783657</v>
+      </c>
+      <c r="M470">
+        <v>0</v>
+      </c>
+      <c r="N470">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14">
+      <c r="A471" t="s">
+        <v>25</v>
+      </c>
+      <c r="B471">
+        <v>0.006572461386789352</v>
+      </c>
+      <c r="C471">
+        <v>0.000985869208018403</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>0.002300361485376273</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+      <c r="H471">
+        <v>0.000985869208018403</v>
+      </c>
+      <c r="I471">
+        <v>0.0003286230693394677</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
+      <c r="L471">
+        <v>0.0006572461386789353</v>
+      </c>
+      <c r="M471">
+        <v>0.0003286230693394677</v>
+      </c>
+      <c r="N471">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14">
+      <c r="A472" t="s">
+        <v>25</v>
+      </c>
+      <c r="B472">
+        <v>0.008067769261799113</v>
+      </c>
+      <c r="C472">
+        <v>0.0002016942315449778</v>
+      </c>
+      <c r="D472">
+        <v>0.0004033884630899556</v>
+      </c>
+      <c r="E472">
+        <v>0.0008067769261799112</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>0.0002016942315449778</v>
+      </c>
+      <c r="H472">
+        <v>0.0006050826946349334</v>
+      </c>
+      <c r="I472">
+        <v>0.0004033884630899556</v>
+      </c>
+      <c r="J472">
+        <v>0.0002016942315449778</v>
+      </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
+      <c r="L472">
+        <v>0</v>
+      </c>
+      <c r="M472">
+        <v>0.0006050826946349334</v>
+      </c>
+      <c r="N472">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14">
+      <c r="A473" t="s">
+        <v>25</v>
+      </c>
+      <c r="B473">
+        <v>999</v>
+      </c>
+      <c r="C473">
+        <v>999</v>
+      </c>
+      <c r="D473">
+        <v>999</v>
+      </c>
+      <c r="E473">
+        <v>999</v>
+      </c>
+      <c r="F473">
+        <v>999</v>
+      </c>
+      <c r="G473">
+        <v>999</v>
+      </c>
+      <c r="H473">
+        <v>999</v>
+      </c>
+      <c r="I473">
+        <v>999</v>
+      </c>
+      <c r="J473">
+        <v>999</v>
+      </c>
+      <c r="K473">
+        <v>999</v>
+      </c>
+      <c r="L473">
+        <v>999</v>
+      </c>
+      <c r="M473">
+        <v>999</v>
+      </c>
+      <c r="N473">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14">
+      <c r="A474" t="s">
+        <v>25</v>
+      </c>
+      <c r="B474">
+        <v>0.005798629414865577</v>
+      </c>
+      <c r="C474">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="F474">
+        <v>0</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+      <c r="I474">
+        <v>0.00316288877174486</v>
+      </c>
+      <c r="J474">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="K474">
+        <v>0</v>
+      </c>
+      <c r="L474">
+        <v>0</v>
+      </c>
+      <c r="M474">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="N474">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14">
+      <c r="A475" t="s">
+        <v>25</v>
+      </c>
+      <c r="B475">
+        <v>0.02259887005649718</v>
+      </c>
+      <c r="C475">
+        <v>0.0002456398919184475</v>
+      </c>
+      <c r="D475">
+        <v>0.0004912797838368951</v>
+      </c>
+      <c r="E475">
+        <v>0.0007369196757553427</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+      <c r="H475">
+        <v>0.0002456398919184475</v>
+      </c>
+      <c r="I475">
+        <v>0.001719479243429133</v>
+      </c>
+      <c r="J475">
+        <v>0.0002456398919184475</v>
+      </c>
+      <c r="K475">
+        <v>0.0002456398919184475</v>
+      </c>
+      <c r="L475">
+        <v>0</v>
+      </c>
+      <c r="M475">
+        <v>0.0004912797838368951</v>
+      </c>
+      <c r="N475">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14">
+      <c r="A476" t="s">
+        <v>25</v>
+      </c>
+      <c r="B476">
+        <v>0.002923976608187134</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>0.001461988304093567</v>
+      </c>
+      <c r="E476">
+        <v>0.001461988304093567</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+      <c r="I476">
+        <v>0.001461988304093567</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>0.001461988304093567</v>
+      </c>
+      <c r="L476">
+        <v>0</v>
+      </c>
+      <c r="M476">
+        <v>0.002923976608187134</v>
+      </c>
+      <c r="N476">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14">
+      <c r="A477" t="s">
+        <v>25</v>
+      </c>
+      <c r="B477">
+        <v>0.02094240837696335</v>
+      </c>
+      <c r="C477">
+        <v>0.005235602094240838</v>
+      </c>
+      <c r="D477">
+        <v>0.005235602094240838</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
+      <c r="L477">
+        <v>0</v>
+      </c>
+      <c r="M477">
+        <v>0</v>
+      </c>
+      <c r="N477">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14">
+      <c r="A478" t="s">
+        <v>25</v>
+      </c>
+      <c r="B478">
+        <v>0.02404809619238477</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>0</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+      <c r="I478">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
+        <v>0</v>
+      </c>
+      <c r="L478">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="M478">
+        <v>0</v>
+      </c>
+      <c r="N478">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14">
+      <c r="A479" t="s">
+        <v>25</v>
+      </c>
+      <c r="B479">
+        <v>0.0299636803874092</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>0.0003026634382566586</v>
+      </c>
+      <c r="E479">
+        <v>0.00211864406779661</v>
+      </c>
+      <c r="F479">
+        <v>0</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>0.0006053268765133172</v>
+      </c>
+      <c r="I479">
+        <v>0.0003026634382566586</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
+        <v>0.0006053268765133172</v>
+      </c>
+      <c r="L479">
+        <v>0.0003026634382566586</v>
+      </c>
+      <c r="M479">
+        <v>0.0006053268765133172</v>
+      </c>
+      <c r="N479">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14">
+      <c r="A480" t="s">
+        <v>25</v>
+      </c>
+      <c r="B480">
+        <v>0.02643329165922486</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>0.0005358099660653688</v>
+      </c>
+      <c r="E480">
+        <v>0.001428826576174317</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+      <c r="G480">
+        <v>0</v>
+      </c>
+      <c r="H480">
+        <v>0.000893016610108948</v>
+      </c>
+      <c r="I480">
+        <v>0.001964636542239686</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>0.0005358099660653688</v>
+      </c>
+      <c r="L480">
+        <v>0</v>
+      </c>
+      <c r="M480">
+        <v>0.0007144132880871584</v>
+      </c>
+      <c r="N480">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14">
+      <c r="A481" t="s">
+        <v>25</v>
+      </c>
+      <c r="B481">
+        <v>0.03105590062111801</v>
+      </c>
+      <c r="C481">
+        <v>0.0005323868677905945</v>
+      </c>
+      <c r="D481">
+        <v>0.0008873114463176575</v>
+      </c>
+      <c r="E481">
+        <v>0.001242236024844721</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+      <c r="H481">
+        <v>0.001419698314108252</v>
+      </c>
+      <c r="I481">
+        <v>0.000709849157054126</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0.0001774622892635315</v>
+      </c>
+      <c r="L481">
+        <v>0.0001774622892635315</v>
+      </c>
+      <c r="M481">
+        <v>0.001064773735581189</v>
+      </c>
+      <c r="N481">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14">
+      <c r="A482" t="s">
+        <v>25</v>
+      </c>
+      <c r="B482">
+        <v>0.02602158828064765</v>
+      </c>
+      <c r="C482">
+        <v>0.0001927525057825752</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>0.001734772552043176</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+      <c r="H482">
+        <v>0.001927525057825752</v>
+      </c>
+      <c r="I482">
+        <v>0.0007710100231303007</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>0</v>
+      </c>
+      <c r="L482">
+        <v>0.0001927525057825752</v>
+      </c>
+      <c r="M482">
+        <v>0.0005782575173477255</v>
+      </c>
+      <c r="N482">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14">
+      <c r="A483" t="s">
+        <v>25</v>
+      </c>
+      <c r="B483">
+        <v>0.02246696035242291</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+      <c r="E483">
+        <v>0.002202643171806168</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>0</v>
+      </c>
+      <c r="H483">
+        <v>0.0013215859030837</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>0</v>
+      </c>
+      <c r="K483">
+        <v>0.0004405286343612335</v>
+      </c>
+      <c r="L483">
+        <v>0.000881057268722467</v>
+      </c>
+      <c r="M483">
+        <v>0.0004405286343612335</v>
+      </c>
+      <c r="N483">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14">
+      <c r="A484" t="s">
+        <v>25</v>
+      </c>
+      <c r="B484">
+        <v>0.04193548387096774</v>
+      </c>
+      <c r="C484">
+        <v>0.0003225806451612903</v>
+      </c>
+      <c r="D484">
+        <v>0.0003225806451612903</v>
+      </c>
+      <c r="E484">
+        <v>0.002580645161290323</v>
+      </c>
+      <c r="F484">
+        <v>0</v>
+      </c>
+      <c r="G484">
+        <v>0.0008064516129032258</v>
+      </c>
+      <c r="H484">
+        <v>0.0008064516129032258</v>
+      </c>
+      <c r="I484">
+        <v>0.000967741935483871</v>
+      </c>
+      <c r="J484">
+        <v>0.0003225806451612903</v>
+      </c>
+      <c r="K484">
+        <v>0.0001612903225806452</v>
+      </c>
+      <c r="L484">
+        <v>0.0003225806451612903</v>
+      </c>
+      <c r="M484">
+        <v>0.0008064516129032258</v>
+      </c>
+      <c r="N484">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14">
+      <c r="A485" t="s">
+        <v>25</v>
+      </c>
+      <c r="B485">
+        <v>0.04356647090229578</v>
+      </c>
+      <c r="C485">
+        <v>0.001174586225306994</v>
+      </c>
+      <c r="D485">
+        <v>0.0003203416978109984</v>
+      </c>
+      <c r="E485">
+        <v>0.002776294714361986</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485">
+        <v>0.0005339028296849973</v>
+      </c>
+      <c r="H485">
+        <v>0.001067805659369995</v>
+      </c>
+      <c r="I485">
+        <v>0.0004271222637479979</v>
+      </c>
+      <c r="J485">
+        <v>0.0001067805659369995</v>
+      </c>
+      <c r="K485">
+        <v>0</v>
+      </c>
+      <c r="L485">
+        <v>0.0004271222637479979</v>
+      </c>
+      <c r="M485">
+        <v>0.0003203416978109984</v>
+      </c>
+      <c r="N485">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14">
+      <c r="A486" t="s">
+        <v>25</v>
+      </c>
+      <c r="B486">
+        <v>0.0271841019872516</v>
+      </c>
+      <c r="C486">
+        <v>0.0003749531308586427</v>
+      </c>
+      <c r="D486">
+        <v>0.0003749531308586427</v>
+      </c>
+      <c r="E486">
+        <v>0.001499812523434571</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+      <c r="G486">
+        <v>0.0009373828271466067</v>
+      </c>
+      <c r="H486">
+        <v>0.002249718785151856</v>
+      </c>
+      <c r="I486">
+        <v>0.0003749531308586427</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+      <c r="K486">
+        <v>0.0001874765654293213</v>
+      </c>
+      <c r="L486">
+        <v>0.0001874765654293213</v>
+      </c>
+      <c r="M486">
+        <v>0.0007499062617172854</v>
+      </c>
+      <c r="N486">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14">
+      <c r="A487" t="s">
+        <v>25</v>
+      </c>
+      <c r="B487">
+        <v>0.01282727112985416</v>
+      </c>
+      <c r="C487">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="D487">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="E487">
+        <v>0.003690036900369004</v>
+      </c>
+      <c r="F487">
+        <v>0.0001757160428747145</v>
+      </c>
+      <c r="G487">
+        <v>0.0001757160428747145</v>
+      </c>
+      <c r="H487">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="I487">
+        <v>0.0003514320857494289</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487">
+        <v>0</v>
+      </c>
+      <c r="L487">
+        <v>0.0001757160428747145</v>
+      </c>
+      <c r="M487">
+        <v>0.0001757160428747145</v>
+      </c>
+      <c r="N487">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14">
+      <c r="A488" t="s">
+        <v>25</v>
+      </c>
+      <c r="B488">
+        <v>0.0278041825095057</v>
+      </c>
+      <c r="C488">
+        <v>0.0004752851711026616</v>
+      </c>
+      <c r="D488">
+        <v>0.0004752851711026616</v>
+      </c>
+      <c r="E488">
+        <v>0.002138783269961977</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+      <c r="H488">
+        <v>0.001188212927756654</v>
+      </c>
+      <c r="I488">
+        <v>0.0007129277566539924</v>
+      </c>
+      <c r="J488">
+        <v>0</v>
+      </c>
+      <c r="K488">
+        <v>0</v>
+      </c>
+      <c r="L488">
+        <v>0</v>
+      </c>
+      <c r="M488">
+        <v>0.0004752851711026616</v>
+      </c>
+      <c r="N488">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14">
+      <c r="A489" t="s">
+        <v>25</v>
+      </c>
+      <c r="B489">
+        <v>0.05488913122500909</v>
+      </c>
+      <c r="C489">
+        <v>0.002908033442384587</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>0.00109051254089422</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>0.0007270083605961468</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
+      <c r="L489">
+        <v>0</v>
+      </c>
+      <c r="M489">
+        <v>0</v>
+      </c>
+      <c r="N489">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14">
+      <c r="A490" t="s">
+        <v>25</v>
+      </c>
+      <c r="B490">
+        <v>0.07243163340724317</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>0.006651884700665188</v>
+      </c>
+      <c r="F490">
+        <v>0</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>0</v>
+      </c>
+      <c r="I490">
+        <v>0.0007390983000739098</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <v>0.0007390983000739098</v>
+      </c>
+      <c r="M490">
+        <v>0</v>
+      </c>
+      <c r="N490">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14">
+      <c r="A491" t="s">
+        <v>25</v>
+      </c>
+      <c r="B491">
+        <v>0.05138790035587189</v>
+      </c>
+      <c r="C491">
+        <v>0.001565836298932384</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>0.00199288256227758</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>0.0002846975088967971</v>
+      </c>
+      <c r="I491">
+        <v>0.0002846975088967971</v>
+      </c>
+      <c r="J491">
+        <v>0.0001423487544483986</v>
+      </c>
+      <c r="K491">
+        <v>0.0005693950177935943</v>
+      </c>
+      <c r="L491">
+        <v>0.0001423487544483986</v>
+      </c>
+      <c r="M491">
+        <v>0.0004270462633451957</v>
+      </c>
+      <c r="N491">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14">
+      <c r="A492" t="s">
+        <v>25</v>
+      </c>
+      <c r="B492">
+        <v>0.03081380036871214</v>
+      </c>
+      <c r="C492">
+        <v>0.001316829075585989</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>0.002106926520937582</v>
+      </c>
+      <c r="F492">
+        <v>0</v>
+      </c>
+      <c r="G492">
+        <v>0.0002633658151171978</v>
+      </c>
+      <c r="H492">
+        <v>0.001053463260468791</v>
+      </c>
+      <c r="I492">
+        <v>0.0007900974453515934</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0.0002633658151171978</v>
+      </c>
+      <c r="L492">
+        <v>0.0002633658151171978</v>
+      </c>
+      <c r="M492">
+        <v>0.001053463260468791</v>
+      </c>
+      <c r="N492">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14">
+      <c r="A493" t="s">
+        <v>25</v>
+      </c>
+      <c r="B493">
+        <v>0.02935263369521512</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>0.00241254523522316</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+      <c r="I493">
+        <v>0.0008041817450743868</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0.001608363490148774</v>
+      </c>
+      <c r="L493">
+        <v>0</v>
+      </c>
+      <c r="M493">
+        <v>0.0008041817450743868</v>
+      </c>
+      <c r="N493">
         <v>2020</v>
       </c>
     </row>
